--- a/Config/JA/ユーザー.xlsx
+++ b/Config/JA/ユーザー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus\Documents\GitHub\OrchestratorManager\Config\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416102DE-FDF1-4B39-8812-368EE1C2CBE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02192CC4-6303-4449-8723-B729DF652D2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,40 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>Asset Id</t>
-  </si>
-  <si>
-    <t>OU ID or Name</t>
-  </si>
-  <si>
-    <t>Surname</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Roles</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>OUs Names or Ids</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="12">
   <si>
     <t>名</t>
   </si>
@@ -83,7 +50,7 @@
     <t>メールアドレス</t>
   </si>
   <si>
-    <t>組織単位（フォルダ）</t>
+    <t>組織単位（フォルダ）名</t>
   </si>
   <si>
     <t>ロール</t>
@@ -94,12 +61,24 @@
   <si>
     <t>ID</t>
   </si>
+  <si>
+    <t>組織単位（フォルダ）名またはID</t>
+  </si>
+  <si>
+    <t>パスワード</t>
+  </si>
+  <si>
+    <t>結果</t>
+  </si>
+  <si>
+    <t>ユーザーID</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +88,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -131,10 +118,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -144,11 +132,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="18">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -158,6 +148,61 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -201,7 +246,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -303,9 +348,9 @@
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="名" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="姓"/>
-    <tableColumn id="7" xr3:uid="{A067D188-197D-4A79-82E6-8C9B8EDABB7C}" name="ユーザー名" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{C68BBEAC-7A58-41FB-BA92-351982A4DA1B}" name="メールアドレス" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="組織単位（フォルダ）" totalsRowFunction="count" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{A067D188-197D-4A79-82E6-8C9B8EDABB7C}" name="ユーザー名" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{C68BBEAC-7A58-41FB-BA92-351982A4DA1B}" name="メールアドレス" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="組織単位（フォルダ）名" totalsRowFunction="count" dataDxfId="15"/>
     <tableColumn id="3" xr3:uid="{96DFDB45-0B9C-4367-9B24-D26DAD7C70E7}" name="ロール"/>
     <tableColumn id="4" xr3:uid="{73F4371D-09E6-432B-A8D2-FDF51584A3F9}" name="ステータス"/>
     <tableColumn id="8" xr3:uid="{1372863E-1574-486C-96A5-9F8A48DBEB17}" name="ID"/>
@@ -315,43 +360,48 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:F101" totalsRowShown="0">
-  <autoFilter ref="A1:F101" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Surname"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Email"/>
-    <tableColumn id="7" xr3:uid="{9F5282FE-6479-41B7-8672-34D0C5F6C8EE}" name="OUs Names or Ids" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{42F54A22-BA7B-4DC3-BF4D-BA0546417160}" name="Roles" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{E2F843A0-E163-4591-A90A-DA03F637285C}" name="Status" dataDxfId="7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I101" totalsRowShown="0">
+  <autoFilter ref="A1:I101" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="名"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="姓"/>
+    <tableColumn id="10" xr3:uid="{65749B7E-1278-4BF9-BE0E-B0B1A7EBF445}" name="ユーザー名" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="メールアドレス"/>
+    <tableColumn id="7" xr3:uid="{9F5282FE-6479-41B7-8672-34D0C5F6C8EE}" name="組織単位（フォルダ）名またはID" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{42F54A22-BA7B-4DC3-BF4D-BA0546417160}" name="ロール" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{4E111FFE-AC48-4FF2-B3E5-DEDE4EC1D531}" name="パスワード" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{E2F843A0-E163-4591-A90A-DA03F637285C}" name="ID" dataDxfId="10"/>
+    <tableColumn id="8" xr3:uid="{08B4DCAC-6628-4928-B533-CE43508622D2}" name="結果" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BD40330C-E043-47F5-9A1D-98C4F5DCAE20}" name="Table15" displayName="Table15" ref="A1:F101" totalsRowShown="0">
-  <autoFilter ref="A1:F101" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{D002318D-F09E-4941-86F7-CB540B53CA38}" name="Name"/>
-    <tableColumn id="2" xr3:uid="{A5B9750D-9F4C-4ACD-B998-452D86A89786}" name="Type"/>
-    <tableColumn id="4" xr3:uid="{FB9ABF1E-6D2B-4148-9C75-B26D470A604D}" name="Value"/>
-    <tableColumn id="7" xr3:uid="{D7BAAF9B-F2D3-47F6-A40B-80DD0288C534}" name="OU ID or Name" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{C8CEBD6B-CDA3-4576-9A18-16C14163ADBC}" name="Asset Id" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{34576645-A498-4AA2-BA38-3776D490DE1A}" name="Result" dataDxfId="4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BD40330C-E043-47F5-9A1D-98C4F5DCAE20}" name="Table15" displayName="Table15" ref="A1:I101" totalsRowShown="0">
+  <autoFilter ref="A1:I101" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{D002318D-F09E-4941-86F7-CB540B53CA38}" name="名"/>
+    <tableColumn id="2" xr3:uid="{A5B9750D-9F4C-4ACD-B998-452D86A89786}" name="姓"/>
+    <tableColumn id="4" xr3:uid="{FB9ABF1E-6D2B-4148-9C75-B26D470A604D}" name="メールアドレス"/>
+    <tableColumn id="7" xr3:uid="{D7BAAF9B-F2D3-47F6-A40B-80DD0288C534}" name="組織単位（フォルダ）名またはID" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{C8CEBD6B-CDA3-4576-9A18-16C14163ADBC}" name="ロール" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{310BA8C6-70B4-40F4-B90F-2C40BB19BC10}" name="ステータス" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{34576645-A498-4AA2-BA38-3776D490DE1A}" name="パスワード" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{01450210-36BE-4B28-9B3B-758A2770B142}" name="ID" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{E7804193-086E-4884-9B07-86C7E77E0835}" name="結果" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:D101" totalsRowShown="0">
-  <autoFilter ref="A1:D101" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Name" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{51051268-0C6E-425F-8AEE-5BD7400426FE}" name="OU ID or Name" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Asset Id" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{789EC9DB-B69B-4343-B58A-CF450EDB59BF}" name="Result" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:C101" totalsRowShown="0">
+  <autoFilter ref="A1:C101" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ユーザー名" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="ユーザーID" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{789EC9DB-B69B-4343-B58A-CF450EDB59BF}" name="結果" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -628,40 +678,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="4" width="32.7109375" customWidth="1"/>
-    <col min="5" max="5" width="33.7109375" customWidth="1"/>
-    <col min="6" max="6" width="35.85546875" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1165,11 +1215,6 @@
       <c r="E101" s="3"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{83D83DDD-592D-48AF-B2D8-DE4099A4430A}">
-      <formula1>"Text,Bool,Integer,Credential"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -1180,649 +1225,854 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="30.5703125" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" customWidth="1"/>
+    <col min="5" max="5" width="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C3" s="2"/>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D2" s="5"/>
+      <c r="E2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C4" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C5" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C6" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C7" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C8" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C10" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C11" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C12" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D12" s="2"/>
-      <c r="E12" s="1"/>
+      <c r="E12" s="2"/>
       <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C13" s="2"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D13" s="2"/>
-      <c r="E13" s="1"/>
+      <c r="E13" s="2"/>
       <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C14" s="2"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D14" s="2"/>
-      <c r="E14" s="1"/>
+      <c r="E14" s="2"/>
       <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C15" s="2"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D15" s="2"/>
-      <c r="E15" s="1"/>
+      <c r="E15" s="2"/>
       <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C16" s="2"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D16" s="2"/>
-      <c r="E16" s="1"/>
+      <c r="E16" s="2"/>
       <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C17" s="2"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D17" s="2"/>
-      <c r="E17" s="1"/>
+      <c r="E17" s="2"/>
       <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C18" s="2"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D18" s="2"/>
-      <c r="E18" s="1"/>
+      <c r="E18" s="2"/>
       <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C19" s="2"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D19" s="2"/>
-      <c r="E19" s="1"/>
+      <c r="E19" s="2"/>
       <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C20" s="2"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D20" s="2"/>
-      <c r="E20" s="1"/>
+      <c r="E20" s="2"/>
       <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C21" s="2"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D21" s="2"/>
-      <c r="E21" s="1"/>
+      <c r="E21" s="2"/>
       <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C22" s="2"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D22" s="2"/>
-      <c r="E22" s="1"/>
+      <c r="E22" s="2"/>
       <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C23" s="2"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+    </row>
+    <row r="23" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D23" s="2"/>
-      <c r="E23" s="1"/>
+      <c r="E23" s="2"/>
       <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C24" s="2"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D24" s="2"/>
-      <c r="E24" s="1"/>
+      <c r="E24" s="2"/>
       <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C25" s="2"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D25" s="2"/>
-      <c r="E25" s="1"/>
+      <c r="E25" s="2"/>
       <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C26" s="2"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D26" s="2"/>
-      <c r="E26" s="1"/>
+      <c r="E26" s="2"/>
       <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C27" s="2"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D27" s="2"/>
-      <c r="E27" s="1"/>
+      <c r="E27" s="2"/>
       <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C28" s="2"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D28" s="2"/>
-      <c r="E28" s="1"/>
+      <c r="E28" s="2"/>
       <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C29" s="2"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D29" s="2"/>
-      <c r="E29" s="1"/>
+      <c r="E29" s="2"/>
       <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C30" s="2"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D30" s="2"/>
-      <c r="E30" s="1"/>
+      <c r="E30" s="2"/>
       <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C31" s="2"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D31" s="2"/>
-      <c r="E31" s="1"/>
+      <c r="E31" s="2"/>
       <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C32" s="2"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D32" s="2"/>
-      <c r="E32" s="1"/>
+      <c r="E32" s="2"/>
       <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C33" s="2"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D33" s="2"/>
-      <c r="E33" s="1"/>
+      <c r="E33" s="2"/>
       <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C34" s="2"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D34" s="2"/>
-      <c r="E34" s="1"/>
+      <c r="E34" s="2"/>
       <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C35" s="2"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D35" s="2"/>
-      <c r="E35" s="1"/>
+      <c r="E35" s="2"/>
       <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C36" s="2"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D36" s="2"/>
-      <c r="E36" s="1"/>
+      <c r="E36" s="2"/>
       <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C37" s="2"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D37" s="2"/>
-      <c r="E37" s="1"/>
+      <c r="E37" s="2"/>
       <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C38" s="2"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+    </row>
+    <row r="38" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D38" s="2"/>
-      <c r="E38" s="1"/>
+      <c r="E38" s="2"/>
       <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C39" s="2"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D39" s="2"/>
-      <c r="E39" s="1"/>
+      <c r="E39" s="2"/>
       <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C40" s="2"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D40" s="2"/>
-      <c r="E40" s="1"/>
+      <c r="E40" s="2"/>
       <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C41" s="2"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D41" s="2"/>
-      <c r="E41" s="1"/>
+      <c r="E41" s="2"/>
       <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C42" s="2"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D42" s="2"/>
-      <c r="E42" s="1"/>
+      <c r="E42" s="2"/>
       <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C43" s="2"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D43" s="2"/>
-      <c r="E43" s="1"/>
+      <c r="E43" s="2"/>
       <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C44" s="2"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D44" s="2"/>
-      <c r="E44" s="1"/>
+      <c r="E44" s="2"/>
       <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C45" s="2"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D45" s="2"/>
-      <c r="E45" s="1"/>
+      <c r="E45" s="2"/>
       <c r="F45" s="1"/>
-    </row>
-    <row r="46" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C46" s="2"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D46" s="2"/>
-      <c r="E46" s="1"/>
+      <c r="E46" s="2"/>
       <c r="F46" s="1"/>
-    </row>
-    <row r="47" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C47" s="2"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D47" s="2"/>
-      <c r="E47" s="1"/>
+      <c r="E47" s="2"/>
       <c r="F47" s="1"/>
-    </row>
-    <row r="48" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C48" s="2"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D48" s="2"/>
-      <c r="E48" s="1"/>
+      <c r="E48" s="2"/>
       <c r="F48" s="1"/>
-    </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C49" s="2"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D49" s="2"/>
-      <c r="E49" s="1"/>
+      <c r="E49" s="2"/>
       <c r="F49" s="1"/>
-    </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C50" s="2"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D50" s="2"/>
-      <c r="E50" s="1"/>
+      <c r="E50" s="2"/>
       <c r="F50" s="1"/>
-    </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C51" s="2"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D51" s="2"/>
-      <c r="E51" s="1"/>
+      <c r="E51" s="2"/>
       <c r="F51" s="1"/>
-    </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C52" s="2"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+    </row>
+    <row r="52" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D52" s="2"/>
-      <c r="E52" s="1"/>
+      <c r="E52" s="2"/>
       <c r="F52" s="1"/>
-    </row>
-    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C53" s="2"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+    </row>
+    <row r="53" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D53" s="2"/>
-      <c r="E53" s="1"/>
+      <c r="E53" s="2"/>
       <c r="F53" s="1"/>
-    </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C54" s="2"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D54" s="2"/>
-      <c r="E54" s="1"/>
+      <c r="E54" s="2"/>
       <c r="F54" s="1"/>
-    </row>
-    <row r="55" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C55" s="2"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+    </row>
+    <row r="55" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D55" s="2"/>
-      <c r="E55" s="1"/>
+      <c r="E55" s="2"/>
       <c r="F55" s="1"/>
-    </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C56" s="2"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+    </row>
+    <row r="56" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D56" s="2"/>
-      <c r="E56" s="1"/>
+      <c r="E56" s="2"/>
       <c r="F56" s="1"/>
-    </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C57" s="2"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+    </row>
+    <row r="57" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D57" s="2"/>
-      <c r="E57" s="1"/>
+      <c r="E57" s="2"/>
       <c r="F57" s="1"/>
-    </row>
-    <row r="58" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C58" s="2"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+    </row>
+    <row r="58" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D58" s="2"/>
-      <c r="E58" s="1"/>
+      <c r="E58" s="2"/>
       <c r="F58" s="1"/>
-    </row>
-    <row r="59" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C59" s="2"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+    </row>
+    <row r="59" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D59" s="2"/>
-      <c r="E59" s="1"/>
+      <c r="E59" s="2"/>
       <c r="F59" s="1"/>
-    </row>
-    <row r="60" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C60" s="2"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+    </row>
+    <row r="60" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D60" s="2"/>
-      <c r="E60" s="1"/>
+      <c r="E60" s="2"/>
       <c r="F60" s="1"/>
-    </row>
-    <row r="61" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C61" s="2"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+    </row>
+    <row r="61" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D61" s="2"/>
-      <c r="E61" s="1"/>
+      <c r="E61" s="2"/>
       <c r="F61" s="1"/>
-    </row>
-    <row r="62" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C62" s="2"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+    </row>
+    <row r="62" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D62" s="2"/>
-      <c r="E62" s="1"/>
+      <c r="E62" s="2"/>
       <c r="F62" s="1"/>
-    </row>
-    <row r="63" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C63" s="2"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+    </row>
+    <row r="63" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D63" s="2"/>
-      <c r="E63" s="1"/>
+      <c r="E63" s="2"/>
       <c r="F63" s="1"/>
-    </row>
-    <row r="64" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C64" s="2"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+    </row>
+    <row r="64" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D64" s="2"/>
-      <c r="E64" s="1"/>
+      <c r="E64" s="2"/>
       <c r="F64" s="1"/>
-    </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C65" s="2"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+    </row>
+    <row r="65" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D65" s="2"/>
-      <c r="E65" s="1"/>
+      <c r="E65" s="2"/>
       <c r="F65" s="1"/>
-    </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C66" s="2"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+    </row>
+    <row r="66" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D66" s="2"/>
-      <c r="E66" s="1"/>
+      <c r="E66" s="2"/>
       <c r="F66" s="1"/>
-    </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C67" s="2"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+    </row>
+    <row r="67" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D67" s="2"/>
-      <c r="E67" s="1"/>
+      <c r="E67" s="2"/>
       <c r="F67" s="1"/>
-    </row>
-    <row r="68" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C68" s="2"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+    </row>
+    <row r="68" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D68" s="2"/>
-      <c r="E68" s="1"/>
+      <c r="E68" s="2"/>
       <c r="F68" s="1"/>
-    </row>
-    <row r="69" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C69" s="2"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+    </row>
+    <row r="69" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D69" s="2"/>
-      <c r="E69" s="1"/>
+      <c r="E69" s="2"/>
       <c r="F69" s="1"/>
-    </row>
-    <row r="70" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C70" s="2"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+    </row>
+    <row r="70" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D70" s="2"/>
-      <c r="E70" s="1"/>
+      <c r="E70" s="2"/>
       <c r="F70" s="1"/>
-    </row>
-    <row r="71" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C71" s="2"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+    </row>
+    <row r="71" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D71" s="2"/>
-      <c r="E71" s="1"/>
+      <c r="E71" s="2"/>
       <c r="F71" s="1"/>
-    </row>
-    <row r="72" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C72" s="2"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+    </row>
+    <row r="72" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D72" s="2"/>
-      <c r="E72" s="1"/>
+      <c r="E72" s="2"/>
       <c r="F72" s="1"/>
-    </row>
-    <row r="73" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C73" s="2"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+    </row>
+    <row r="73" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D73" s="2"/>
-      <c r="E73" s="1"/>
+      <c r="E73" s="2"/>
       <c r="F73" s="1"/>
-    </row>
-    <row r="74" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C74" s="2"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+    </row>
+    <row r="74" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D74" s="2"/>
-      <c r="E74" s="1"/>
+      <c r="E74" s="2"/>
       <c r="F74" s="1"/>
-    </row>
-    <row r="75" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C75" s="2"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+    </row>
+    <row r="75" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D75" s="2"/>
-      <c r="E75" s="1"/>
+      <c r="E75" s="2"/>
       <c r="F75" s="1"/>
-    </row>
-    <row r="76" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C76" s="2"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+    </row>
+    <row r="76" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D76" s="2"/>
-      <c r="E76" s="1"/>
+      <c r="E76" s="2"/>
       <c r="F76" s="1"/>
-    </row>
-    <row r="77" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C77" s="2"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+    </row>
+    <row r="77" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D77" s="2"/>
-      <c r="E77" s="1"/>
+      <c r="E77" s="2"/>
       <c r="F77" s="1"/>
-    </row>
-    <row r="78" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C78" s="2"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+    </row>
+    <row r="78" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D78" s="2"/>
-      <c r="E78" s="1"/>
+      <c r="E78" s="2"/>
       <c r="F78" s="1"/>
-    </row>
-    <row r="79" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C79" s="2"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+    </row>
+    <row r="79" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D79" s="2"/>
-      <c r="E79" s="1"/>
+      <c r="E79" s="2"/>
       <c r="F79" s="1"/>
-    </row>
-    <row r="80" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C80" s="2"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+    </row>
+    <row r="80" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D80" s="2"/>
-      <c r="E80" s="1"/>
+      <c r="E80" s="2"/>
       <c r="F80" s="1"/>
-    </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C81" s="2"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+    </row>
+    <row r="81" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D81" s="2"/>
-      <c r="E81" s="1"/>
+      <c r="E81" s="2"/>
       <c r="F81" s="1"/>
-    </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C82" s="2"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+    </row>
+    <row r="82" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D82" s="2"/>
-      <c r="E82" s="1"/>
+      <c r="E82" s="2"/>
       <c r="F82" s="1"/>
-    </row>
-    <row r="83" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C83" s="2"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+    </row>
+    <row r="83" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D83" s="2"/>
-      <c r="E83" s="1"/>
+      <c r="E83" s="2"/>
       <c r="F83" s="1"/>
-    </row>
-    <row r="84" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C84" s="2"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+    </row>
+    <row r="84" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D84" s="2"/>
-      <c r="E84" s="1"/>
+      <c r="E84" s="2"/>
       <c r="F84" s="1"/>
-    </row>
-    <row r="85" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C85" s="2"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+    </row>
+    <row r="85" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D85" s="2"/>
-      <c r="E85" s="1"/>
+      <c r="E85" s="2"/>
       <c r="F85" s="1"/>
-    </row>
-    <row r="86" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C86" s="2"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+    </row>
+    <row r="86" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D86" s="2"/>
-      <c r="E86" s="1"/>
+      <c r="E86" s="2"/>
       <c r="F86" s="1"/>
-    </row>
-    <row r="87" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C87" s="2"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+    </row>
+    <row r="87" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D87" s="2"/>
-      <c r="E87" s="1"/>
+      <c r="E87" s="2"/>
       <c r="F87" s="1"/>
-    </row>
-    <row r="88" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C88" s="2"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+    </row>
+    <row r="88" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D88" s="2"/>
-      <c r="E88" s="1"/>
+      <c r="E88" s="2"/>
       <c r="F88" s="1"/>
-    </row>
-    <row r="89" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C89" s="2"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+    </row>
+    <row r="89" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D89" s="2"/>
-      <c r="E89" s="1"/>
+      <c r="E89" s="2"/>
       <c r="F89" s="1"/>
-    </row>
-    <row r="90" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C90" s="2"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+    </row>
+    <row r="90" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D90" s="2"/>
-      <c r="E90" s="1"/>
+      <c r="E90" s="2"/>
       <c r="F90" s="1"/>
-    </row>
-    <row r="91" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C91" s="2"/>
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+    </row>
+    <row r="91" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D91" s="2"/>
-      <c r="E91" s="1"/>
+      <c r="E91" s="2"/>
       <c r="F91" s="1"/>
-    </row>
-    <row r="92" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C92" s="2"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+    </row>
+    <row r="92" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D92" s="2"/>
-      <c r="E92" s="1"/>
+      <c r="E92" s="2"/>
       <c r="F92" s="1"/>
-    </row>
-    <row r="93" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C93" s="2"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+    </row>
+    <row r="93" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D93" s="2"/>
-      <c r="E93" s="1"/>
+      <c r="E93" s="2"/>
       <c r="F93" s="1"/>
-    </row>
-    <row r="94" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C94" s="2"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+    </row>
+    <row r="94" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D94" s="2"/>
-      <c r="E94" s="1"/>
+      <c r="E94" s="2"/>
       <c r="F94" s="1"/>
-    </row>
-    <row r="95" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C95" s="2"/>
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+    </row>
+    <row r="95" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D95" s="2"/>
-      <c r="E95" s="1"/>
+      <c r="E95" s="2"/>
       <c r="F95" s="1"/>
-    </row>
-    <row r="96" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C96" s="2"/>
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+    </row>
+    <row r="96" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D96" s="2"/>
-      <c r="E96" s="1"/>
+      <c r="E96" s="2"/>
       <c r="F96" s="1"/>
-    </row>
-    <row r="97" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C97" s="2"/>
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+    </row>
+    <row r="97" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D97" s="2"/>
-      <c r="E97" s="1"/>
+      <c r="E97" s="2"/>
       <c r="F97" s="1"/>
-    </row>
-    <row r="98" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C98" s="2"/>
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+    </row>
+    <row r="98" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D98" s="2"/>
-      <c r="E98" s="1"/>
+      <c r="E98" s="2"/>
       <c r="F98" s="1"/>
-    </row>
-    <row r="99" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C99" s="2"/>
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+    </row>
+    <row r="99" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D99" s="2"/>
-      <c r="E99" s="1"/>
+      <c r="E99" s="2"/>
       <c r="F99" s="1"/>
-    </row>
-    <row r="100" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C100" s="2"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+    </row>
+    <row r="100" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D100" s="2"/>
-      <c r="E100" s="1"/>
+      <c r="E100" s="2"/>
       <c r="F100" s="1"/>
-    </row>
-    <row r="101" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C101" s="2"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+    </row>
+    <row r="101" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D101" s="2"/>
-      <c r="E101" s="1"/>
+      <c r="E101" s="2"/>
       <c r="F101" s="1"/>
+      <c r="G101" s="1"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{F44B3D79-6E85-4752-80E5-E171C2D51A7E}">
-      <formula1>"Text,Bool,Integer,Credential"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -1833,7 +2083,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECF20293-3040-451C-BEA0-1DF5FCF14B01}">
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1841,548 +2091,853 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="47.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="32.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="40" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F3"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F12" s="1"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F13" s="1"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F14" s="1"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F15" s="1"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F16" s="1"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="1"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F18" s="1"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F19" s="1"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F20" s="1"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F21" s="1"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F22" s="1"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F23" s="1"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F24" s="1"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F25" s="1"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F26" s="1"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F27" s="1"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F28" s="1"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F29" s="1"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F30" s="1"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F31" s="1"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F32" s="1"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F33" s="1"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F34" s="1"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F35" s="1"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+    </row>
+    <row r="36" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F36" s="1"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F37" s="1"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F38" s="1"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+    </row>
+    <row r="39" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F39" s="1"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="2"/>
-    </row>
-    <row r="41" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F40" s="1"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+    </row>
+    <row r="41" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="2"/>
-    </row>
-    <row r="42" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F41" s="1"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="2"/>
-    </row>
-    <row r="43" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F42" s="1"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="2"/>
-    </row>
-    <row r="44" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F43" s="1"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="2"/>
-    </row>
-    <row r="45" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F44" s="1"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+    </row>
+    <row r="45" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="2"/>
-    </row>
-    <row r="46" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F45" s="1"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="2"/>
-    </row>
-    <row r="47" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F46" s="1"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+    </row>
+    <row r="47" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="2"/>
-    </row>
-    <row r="48" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F47" s="1"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+    </row>
+    <row r="48" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="2"/>
-    </row>
-    <row r="49" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F48" s="1"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+    </row>
+    <row r="49" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
-      <c r="F49" s="2"/>
-    </row>
-    <row r="50" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F49" s="1"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+    </row>
+    <row r="50" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="2"/>
-    </row>
-    <row r="51" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F50" s="1"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+    </row>
+    <row r="51" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
-      <c r="F51" s="2"/>
-    </row>
-    <row r="52" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F51" s="1"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+    </row>
+    <row r="52" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="2"/>
-    </row>
-    <row r="53" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F52" s="1"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+    </row>
+    <row r="53" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="2"/>
-    </row>
-    <row r="54" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F53" s="1"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+    </row>
+    <row r="54" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="2"/>
-    </row>
-    <row r="55" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F54" s="1"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+    </row>
+    <row r="55" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="2"/>
-    </row>
-    <row r="56" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F55" s="1"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+    </row>
+    <row r="56" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
-      <c r="F56" s="2"/>
-    </row>
-    <row r="57" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F56" s="1"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
-      <c r="F57" s="2"/>
-    </row>
-    <row r="58" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F57" s="1"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+    </row>
+    <row r="58" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
-      <c r="F58" s="2"/>
-    </row>
-    <row r="59" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F58" s="1"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+    </row>
+    <row r="59" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
-      <c r="F59" s="2"/>
-    </row>
-    <row r="60" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F59" s="1"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+    </row>
+    <row r="60" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
-      <c r="F60" s="2"/>
-    </row>
-    <row r="61" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F60" s="1"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+    </row>
+    <row r="61" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
-      <c r="F61" s="2"/>
-    </row>
-    <row r="62" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F61" s="1"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+    </row>
+    <row r="62" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
-      <c r="F62" s="2"/>
-    </row>
-    <row r="63" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F62" s="1"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+    </row>
+    <row r="63" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
-      <c r="F63" s="2"/>
-    </row>
-    <row r="64" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F63" s="1"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+    </row>
+    <row r="64" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
-      <c r="F64" s="2"/>
-    </row>
-    <row r="65" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F64" s="1"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+    </row>
+    <row r="65" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
-      <c r="F65" s="2"/>
-    </row>
-    <row r="66" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F65" s="1"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+    </row>
+    <row r="66" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
-      <c r="F66" s="2"/>
-    </row>
-    <row r="67" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F66" s="1"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+    </row>
+    <row r="67" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
-      <c r="F67" s="2"/>
-    </row>
-    <row r="68" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F67" s="1"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+    </row>
+    <row r="68" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
-      <c r="F68" s="2"/>
-    </row>
-    <row r="69" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F68" s="1"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+    </row>
+    <row r="69" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
-      <c r="F69" s="2"/>
-    </row>
-    <row r="70" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F69" s="1"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+    </row>
+    <row r="70" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
-      <c r="F70" s="2"/>
-    </row>
-    <row r="71" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F70" s="1"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+    </row>
+    <row r="71" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
-      <c r="F71" s="2"/>
-    </row>
-    <row r="72" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F71" s="1"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+    </row>
+    <row r="72" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
-      <c r="F72" s="2"/>
-    </row>
-    <row r="73" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F72" s="1"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+    </row>
+    <row r="73" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
-      <c r="F73" s="2"/>
-    </row>
-    <row r="74" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F73" s="1"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+    </row>
+    <row r="74" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
-      <c r="F74" s="2"/>
-    </row>
-    <row r="75" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F74" s="1"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+    </row>
+    <row r="75" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
-      <c r="F75" s="2"/>
-    </row>
-    <row r="76" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F75" s="1"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+    </row>
+    <row r="76" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
-      <c r="F76" s="2"/>
-    </row>
-    <row r="77" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F76" s="1"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+    </row>
+    <row r="77" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
-      <c r="F77" s="2"/>
-    </row>
-    <row r="78" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F77" s="1"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+    </row>
+    <row r="78" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
-      <c r="F78" s="2"/>
-    </row>
-    <row r="79" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F78" s="1"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+    </row>
+    <row r="79" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
-      <c r="F79" s="2"/>
-    </row>
-    <row r="80" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F79" s="1"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+    </row>
+    <row r="80" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
-      <c r="F80" s="2"/>
-    </row>
-    <row r="81" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F80" s="1"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+    </row>
+    <row r="81" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
-      <c r="F81" s="2"/>
-    </row>
-    <row r="82" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F81" s="1"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+    </row>
+    <row r="82" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
-      <c r="F82" s="2"/>
-    </row>
-    <row r="83" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F82" s="1"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+    </row>
+    <row r="83" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
-      <c r="F83" s="2"/>
-    </row>
-    <row r="84" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F83" s="1"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+    </row>
+    <row r="84" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
-      <c r="F84" s="2"/>
-    </row>
-    <row r="85" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F84" s="1"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+    </row>
+    <row r="85" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
-      <c r="F85" s="2"/>
-    </row>
-    <row r="86" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F85" s="1"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+    </row>
+    <row r="86" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
-      <c r="F86" s="2"/>
-    </row>
-    <row r="87" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F86" s="1"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+    </row>
+    <row r="87" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
-      <c r="F87" s="2"/>
-    </row>
-    <row r="88" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F87" s="1"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+    </row>
+    <row r="88" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
-      <c r="F88" s="2"/>
-    </row>
-    <row r="89" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F88" s="1"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+    </row>
+    <row r="89" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
-      <c r="F89" s="2"/>
-    </row>
-    <row r="90" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F89" s="1"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+    </row>
+    <row r="90" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
-      <c r="F90" s="2"/>
-    </row>
-    <row r="91" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F90" s="1"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+    </row>
+    <row r="91" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
-      <c r="F91" s="2"/>
-    </row>
-    <row r="92" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F91" s="1"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+    </row>
+    <row r="92" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
-      <c r="F92" s="2"/>
-    </row>
-    <row r="93" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F92" s="1"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+    </row>
+    <row r="93" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
-      <c r="F93" s="2"/>
-    </row>
-    <row r="94" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F93" s="1"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+    </row>
+    <row r="94" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
-      <c r="F94" s="2"/>
-    </row>
-    <row r="95" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F94" s="1"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
+    </row>
+    <row r="95" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
-      <c r="F95" s="2"/>
-    </row>
-    <row r="96" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F95" s="1"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+    </row>
+    <row r="96" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
-      <c r="F96" s="2"/>
-    </row>
-    <row r="97" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F96" s="1"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+    </row>
+    <row r="97" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
-      <c r="F97" s="2"/>
-    </row>
-    <row r="98" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F97" s="1"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+    </row>
+    <row r="98" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
-      <c r="F98" s="2"/>
-    </row>
-    <row r="99" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F98" s="1"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+    </row>
+    <row r="99" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
-      <c r="F99" s="2"/>
-    </row>
-    <row r="100" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F99" s="1"/>
+      <c r="G99" s="2"/>
+      <c r="H99" s="2"/>
+      <c r="I99" s="2"/>
+    </row>
+    <row r="100" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
-      <c r="F100" s="2"/>
-    </row>
-    <row r="101" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F100" s="1"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
+    </row>
+    <row r="101" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
-      <c r="F101" s="2"/>
+      <c r="F101" s="1"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="2"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{63D27801-1665-4DF8-9454-ACFF98F813D0}">
-      <formula1>"Text,Bool,Integer,Credential"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -2393,509 +2948,422 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A7D921-E601-49D8-BBF5-CB56640085F5}">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B2"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C2" s="2"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C3" s="2"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B4"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C4" s="2"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B5"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C5" s="2"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C6" s="2"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" s="2"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B13" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
       <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
       <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
       <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
       <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
       <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="2"/>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B28" s="1"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="2"/>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="1"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="2"/>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="2"/>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="2"/>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="1"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B33" s="2"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B34" s="2"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="1"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B35" s="2"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B36" s="2"/>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="1"/>
       <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B37" s="2"/>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="1"/>
       <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B38" s="2"/>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="1"/>
       <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B39" s="2"/>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="1"/>
       <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B40" s="2"/>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="1"/>
       <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B41" s="2"/>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="1"/>
       <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B42" s="2"/>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="1"/>
       <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B43" s="2"/>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="1"/>
       <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="2"/>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="1"/>
       <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B45" s="2"/>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="1"/>
       <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B46" s="2"/>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B46" s="1"/>
       <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B47" s="2"/>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="1"/>
       <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B48" s="2"/>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B48" s="1"/>
       <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B49" s="2"/>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" s="1"/>
       <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B50" s="2"/>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" s="1"/>
       <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B51" s="2"/>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" s="1"/>
       <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B52" s="2"/>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" s="1"/>
       <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B53" s="2"/>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53" s="1"/>
       <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B54" s="2"/>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54" s="1"/>
       <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B55" s="2"/>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B55" s="1"/>
       <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B56" s="2"/>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56" s="1"/>
       <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B57" s="2"/>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B57" s="1"/>
       <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B58" s="2"/>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B58" s="1"/>
       <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B59" s="2"/>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B59" s="1"/>
       <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B60" s="2"/>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B60" s="1"/>
       <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B61" s="2"/>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B61" s="1"/>
       <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B62" s="2"/>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B62" s="1"/>
       <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B63" s="2"/>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B63" s="1"/>
       <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B64" s="2"/>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B64" s="1"/>
       <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B65" s="2"/>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B65" s="1"/>
       <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B66" s="2"/>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B66" s="1"/>
       <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B67" s="2"/>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B67" s="1"/>
       <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B68" s="2"/>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B68" s="1"/>
       <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B69" s="2"/>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B69" s="1"/>
       <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B70" s="2"/>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B70" s="1"/>
       <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B71" s="2"/>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B71" s="1"/>
       <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B72" s="2"/>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B72" s="1"/>
       <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B73" s="2"/>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B73" s="1"/>
       <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B74" s="2"/>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B74" s="1"/>
       <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B75" s="2"/>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B75" s="1"/>
       <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B76" s="2"/>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B76" s="1"/>
       <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B77" s="2"/>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B77" s="1"/>
       <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B78" s="2"/>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B78" s="1"/>
       <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B79" s="1"/>
       <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B80" s="1"/>
       <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-    </row>
-    <row r="81" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B81" s="1"/>
       <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-    </row>
-    <row r="82" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B82" s="1"/>
       <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-    </row>
-    <row r="83" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B83" s="1"/>
       <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-    </row>
-    <row r="84" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B84" s="1"/>
       <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-    </row>
-    <row r="85" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B85" s="1"/>
       <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-    </row>
-    <row r="86" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B86" s="1"/>
       <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-    </row>
-    <row r="87" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B87" s="1"/>
       <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-    </row>
-    <row r="88" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B88" s="1"/>
       <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-    </row>
-    <row r="89" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B89" s="1"/>
       <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-    </row>
-    <row r="90" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B90" s="1"/>
       <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-    </row>
-    <row r="91" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B91" s="1"/>
       <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-    </row>
-    <row r="92" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B92" s="1"/>
       <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-    </row>
-    <row r="93" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B93" s="1"/>
       <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-    </row>
-    <row r="94" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B94" s="1"/>
       <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-    </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B95" s="1"/>
       <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-    </row>
-    <row r="96" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B96" s="1"/>
       <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-    </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B97" s="1"/>
       <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-    </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B98" s="1"/>
       <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-    </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B99" s="1"/>
       <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-    </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B100" s="1"/>
       <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-    </row>
-    <row r="101" spans="3:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B101" s="1"/>
       <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Config/JA/ユーザー.xlsx
+++ b/Config/JA/ユーザー.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus\Documents\GitHub\OrchestratorManager\Config\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02192CC4-6303-4449-8723-B729DF652D2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD4F3B6-87D7-4E30-8B86-591911E05223}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Get" sheetId="4" r:id="rId1"/>
-    <sheet name="Create" sheetId="1" r:id="rId2"/>
-    <sheet name="Edit" sheetId="5" r:id="rId3"/>
-    <sheet name="Delete" sheetId="2" r:id="rId4"/>
+    <sheet name="取得" sheetId="4" r:id="rId1"/>
+    <sheet name="作成" sheetId="1" r:id="rId2"/>
+    <sheet name="編集" sheetId="5" r:id="rId3"/>
+    <sheet name="削除" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>

--- a/Config/JA/ユーザー.xlsx
+++ b/Config/JA/ユーザー.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus\Documents\GitHub\OrchestratorManager\Config\JA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Config\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD4F3B6-87D7-4E30-8B86-591911E05223}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3B9B71-080B-433A-89C0-B478572EF1D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="10">
   <si>
     <t>名</t>
   </si>
@@ -50,9 +50,6 @@
     <t>メールアドレス</t>
   </si>
   <si>
-    <t>組織単位（フォルダ）名</t>
-  </si>
-  <si>
     <t>ロール</t>
   </si>
   <si>
@@ -62,16 +59,13 @@
     <t>ID</t>
   </si>
   <si>
-    <t>組織単位（フォルダ）名またはID</t>
-  </si>
-  <si>
     <t>パスワード</t>
   </si>
   <si>
     <t>結果</t>
   </si>
   <si>
-    <t>ユーザーID</t>
+    <t>組織単位名</t>
   </si>
 </sst>
 </file>
@@ -122,23 +116,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="20">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -147,7 +146,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -158,7 +157,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -193,6 +192,9 @@
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -305,7 +307,11 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -346,14 +352,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:H101">
   <autoFilter ref="A1:H101" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="8">
+    <tableColumn id="8" xr3:uid="{1372863E-1574-486C-96A5-9F8A48DBEB17}" name="ID"/>
+    <tableColumn id="7" xr3:uid="{A067D188-197D-4A79-82E6-8C9B8EDABB7C}" name="ユーザー名" dataDxfId="19"/>
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="名" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="姓"/>
-    <tableColumn id="7" xr3:uid="{A067D188-197D-4A79-82E6-8C9B8EDABB7C}" name="ユーザー名" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{C68BBEAC-7A58-41FB-BA92-351982A4DA1B}" name="メールアドレス" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="組織単位（フォルダ）名" totalsRowFunction="count" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{96DFDB45-0B9C-4367-9B24-D26DAD7C70E7}" name="ロール"/>
+    <tableColumn id="6" xr3:uid="{C68BBEAC-7A58-41FB-BA92-351982A4DA1B}" name="メールアドレス" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="組織単位名" totalsRowFunction="count" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{96DFDB45-0B9C-4367-9B24-D26DAD7C70E7}" name="ロール" dataDxfId="16"/>
     <tableColumn id="4" xr3:uid="{73F4371D-09E6-432B-A8D2-FDF51584A3F9}" name="ステータス"/>
-    <tableColumn id="8" xr3:uid="{1372863E-1574-486C-96A5-9F8A48DBEB17}" name="ID"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -363,15 +369,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I101" totalsRowShown="0">
   <autoFilter ref="A1:I101" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
+    <tableColumn id="10" xr3:uid="{65749B7E-1278-4BF9-BE0E-B0B1A7EBF445}" name="ユーザー名" dataDxfId="15"/>
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="名"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="姓"/>
-    <tableColumn id="10" xr3:uid="{65749B7E-1278-4BF9-BE0E-B0B1A7EBF445}" name="ユーザー名" dataDxfId="14"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="メールアドレス"/>
-    <tableColumn id="7" xr3:uid="{9F5282FE-6479-41B7-8672-34D0C5F6C8EE}" name="組織単位（フォルダ）名またはID" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{42F54A22-BA7B-4DC3-BF4D-BA0546417160}" name="ロール" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{4E111FFE-AC48-4FF2-B3E5-DEDE4EC1D531}" name="パスワード" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{E2F843A0-E163-4591-A90A-DA03F637285C}" name="ID" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{08B4DCAC-6628-4928-B533-CE43508622D2}" name="結果" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{9F5282FE-6479-41B7-8672-34D0C5F6C8EE}" name="組織単位名" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{42F54A22-BA7B-4DC3-BF4D-BA0546417160}" name="ロール" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{4E111FFE-AC48-4FF2-B3E5-DEDE4EC1D531}" name="パスワード" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{E2F843A0-E163-4591-A90A-DA03F637285C}" name="ID" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{08B4DCAC-6628-4928-B533-CE43508622D2}" name="結果" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -381,15 +387,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BD40330C-E043-47F5-9A1D-98C4F5DCAE20}" name="Table15" displayName="Table15" ref="A1:I101" totalsRowShown="0">
   <autoFilter ref="A1:I101" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
+    <tableColumn id="3" xr3:uid="{01450210-36BE-4B28-9B3B-758A2770B142}" name="ID" dataDxfId="6"/>
     <tableColumn id="1" xr3:uid="{D002318D-F09E-4941-86F7-CB540B53CA38}" name="名"/>
     <tableColumn id="2" xr3:uid="{A5B9750D-9F4C-4ACD-B998-452D86A89786}" name="姓"/>
-    <tableColumn id="4" xr3:uid="{FB9ABF1E-6D2B-4148-9C75-B26D470A604D}" name="メールアドレス"/>
-    <tableColumn id="7" xr3:uid="{D7BAAF9B-F2D3-47F6-A40B-80DD0288C534}" name="組織単位（フォルダ）名またはID" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{C8CEBD6B-CDA3-4576-9A18-16C14163ADBC}" name="ロール" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{310BA8C6-70B4-40F4-B90F-2C40BB19BC10}" name="ステータス" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{34576645-A498-4AA2-BA38-3776D490DE1A}" name="パスワード" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{01450210-36BE-4B28-9B3B-758A2770B142}" name="ID" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{E7804193-086E-4884-9B07-86C7E77E0835}" name="結果" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{FB9ABF1E-6D2B-4148-9C75-B26D470A604D}" name="メールアドレス" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{D7BAAF9B-F2D3-47F6-A40B-80DD0288C534}" name="組織単位名" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{C8CEBD6B-CDA3-4576-9A18-16C14163ADBC}" name="ロール" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{310BA8C6-70B4-40F4-B90F-2C40BB19BC10}" name="ステータス" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{34576645-A498-4AA2-BA38-3776D490DE1A}" name="パスワード" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{E7804193-086E-4884-9B07-86C7E77E0835}" name="結果" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -399,9 +405,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:C101" totalsRowShown="0">
   <autoFilter ref="A1:C101" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ユーザー名" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="ユーザーID" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{789EC9DB-B69B-4343-B58A-CF450EDB59BF}" name="結果" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="ID" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ユーザー名" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{789EC9DB-B69B-4343-B58A-CF450EDB59BF}" name="結果" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -676,543 +682,544 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="46.85546875" customWidth="1"/>
-    <col min="4" max="4" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.81640625" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.08984375" customWidth="1"/>
+    <col min="6" max="6" width="26.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.81640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B2" s="2"/>
       <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B3" s="2"/>
       <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B4" s="2"/>
       <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B5" s="2"/>
       <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B6" s="2"/>
       <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B7" s="2"/>
       <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B8" s="2"/>
       <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B9" s="2"/>
       <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B10" s="2"/>
       <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B11" s="1"/>
       <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B12" s="1"/>
       <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B13" s="1"/>
       <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B14" s="1"/>
       <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="3"/>
-    </row>
-    <row r="32" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="3"/>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="3"/>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="3"/>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="3"/>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="3"/>
-    </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="3"/>
-    </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="3"/>
-    </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="3"/>
-    </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="3"/>
-    </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="3"/>
-    </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="3"/>
-    </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="3"/>
-    </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="3"/>
-    </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="3"/>
-    </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="3"/>
-    </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="3"/>
-    </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="3"/>
-    </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="3"/>
-    </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="3"/>
-    </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="3"/>
-    </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="3"/>
-    </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="3"/>
-    </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="3"/>
-    </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="3"/>
-    </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
-      <c r="E56" s="3"/>
-    </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="3"/>
-    </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
-      <c r="E58" s="3"/>
-    </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-      <c r="E59" s="3"/>
-    </row>
-    <row r="60" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
-      <c r="E60" s="3"/>
-    </row>
-    <row r="61" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="3"/>
-    </row>
-    <row r="62" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
-      <c r="E62" s="3"/>
-    </row>
-    <row r="63" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="3"/>
-    </row>
-    <row r="64" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="3"/>
-    </row>
-    <row r="65" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="3"/>
-    </row>
-    <row r="66" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="3"/>
-    </row>
-    <row r="67" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="3"/>
-    </row>
-    <row r="68" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="3"/>
-    </row>
-    <row r="69" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="3"/>
-    </row>
-    <row r="70" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="3"/>
-    </row>
-    <row r="71" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="3"/>
-    </row>
-    <row r="72" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="3"/>
-    </row>
-    <row r="73" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
-      <c r="E73" s="3"/>
-    </row>
-    <row r="74" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
-      <c r="E74" s="3"/>
-    </row>
-    <row r="75" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
-      <c r="E75" s="3"/>
-    </row>
-    <row r="76" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
-      <c r="E76" s="3"/>
-    </row>
-    <row r="77" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="3"/>
-    </row>
-    <row r="78" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
-      <c r="E78" s="3"/>
-    </row>
-    <row r="79" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
-      <c r="E79" s="3"/>
-    </row>
-    <row r="80" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
-      <c r="E80" s="3"/>
-    </row>
-    <row r="81" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
-      <c r="E81" s="3"/>
-    </row>
-    <row r="82" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
-      <c r="E82" s="3"/>
-    </row>
-    <row r="83" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
-      <c r="E83" s="3"/>
-    </row>
-    <row r="84" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
-      <c r="E84" s="3"/>
-    </row>
-    <row r="85" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
-      <c r="E85" s="3"/>
-    </row>
-    <row r="86" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
-      <c r="E86" s="3"/>
-    </row>
-    <row r="87" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="3"/>
-    </row>
-    <row r="88" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
-      <c r="E88" s="3"/>
-    </row>
-    <row r="89" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
-      <c r="E89" s="3"/>
-    </row>
-    <row r="90" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
-      <c r="E90" s="3"/>
-    </row>
-    <row r="91" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
-      <c r="E91" s="3"/>
-    </row>
-    <row r="92" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
-      <c r="E92" s="3"/>
-    </row>
-    <row r="93" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
-      <c r="E93" s="3"/>
-    </row>
-    <row r="94" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
-      <c r="E94" s="3"/>
-    </row>
-    <row r="95" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="3"/>
-    </row>
-    <row r="96" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
-      <c r="E96" s="3"/>
-    </row>
-    <row r="97" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
-      <c r="E97" s="3"/>
-    </row>
-    <row r="98" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
-      <c r="E98" s="3"/>
-    </row>
-    <row r="99" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
-      <c r="E99" s="3"/>
-    </row>
-    <row r="100" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
-      <c r="E100" s="3"/>
-    </row>
-    <row r="101" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
-      <c r="E101" s="3"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="5"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="5"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="5"/>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="5"/>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="5"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="5"/>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="5"/>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="5"/>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="5"/>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="5"/>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="5"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="5"/>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="5"/>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="5"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="5"/>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="5"/>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="5"/>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="5"/>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="5"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="5"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="5"/>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="5"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="5"/>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="5"/>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="5"/>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="5"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="5"/>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="5"/>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="5"/>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="5"/>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="5"/>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="5"/>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="5"/>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="5"/>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="5"/>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="5"/>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="5"/>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="5"/>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="5"/>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="5"/>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="5"/>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="5"/>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="5"/>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="5"/>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="5"/>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="5"/>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="5"/>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="5"/>
+    </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="5"/>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="5"/>
+    </row>
+    <row r="82" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="5"/>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="5"/>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="5"/>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="5"/>
+    </row>
+    <row r="86" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="5"/>
+    </row>
+    <row r="87" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="5"/>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="5"/>
+    </row>
+    <row r="89" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="5"/>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="5"/>
+    </row>
+    <row r="91" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="5"/>
+    </row>
+    <row r="92" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="5"/>
+    </row>
+    <row r="93" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="5"/>
+    </row>
+    <row r="94" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="5"/>
+    </row>
+    <row r="95" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="5"/>
+    </row>
+    <row r="96" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="5"/>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="5"/>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="5"/>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="5"/>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="5"/>
+    </row>
+    <row r="101" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1231,55 +1238,56 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" customWidth="1"/>
-    <col min="5" max="5" width="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.42578125" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.26953125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7265625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.1796875" customWidth="1"/>
+    <col min="6" max="6" width="34.08984375" customWidth="1"/>
+    <col min="7" max="7" width="26.453125" customWidth="1"/>
+    <col min="8" max="8" width="17.54296875" customWidth="1"/>
+    <col min="9" max="9" width="11.54296875" customWidth="1"/>
+    <col min="10" max="10" width="11.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D2" s="5"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D2" s="4"/>
       <c r="E2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -1287,7 +1295,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -1295,7 +1303,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -1303,7 +1311,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -1311,7 +1319,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -1319,7 +1327,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -1327,7 +1335,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -1335,7 +1343,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -1343,7 +1351,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -1351,7 +1359,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="1"/>
@@ -1359,7 +1367,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="1"/>
@@ -1367,7 +1375,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="1"/>
@@ -1375,7 +1383,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="1"/>
@@ -1383,7 +1391,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="1"/>
@@ -1391,7 +1399,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="1"/>
@@ -1399,7 +1407,7 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="1"/>
@@ -1407,7 +1415,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="1"/>
@@ -1415,7 +1423,7 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="1"/>
@@ -1423,7 +1431,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="1"/>
@@ -1431,7 +1439,7 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="1"/>
@@ -1439,7 +1447,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="1"/>
@@ -1447,7 +1455,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="1"/>
@@ -1455,7 +1463,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="1"/>
@@ -1463,7 +1471,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="1"/>
@@ -1471,7 +1479,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="1"/>
@@ -1479,7 +1487,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="1"/>
@@ -1487,7 +1495,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="1"/>
@@ -1495,7 +1503,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="1"/>
@@ -1503,7 +1511,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="1"/>
@@ -1511,7 +1519,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="1"/>
@@ -1519,7 +1527,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="1"/>
@@ -1527,7 +1535,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="1"/>
@@ -1535,7 +1543,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="1"/>
@@ -1543,7 +1551,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="1"/>
@@ -1551,7 +1559,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="1"/>
@@ -1559,7 +1567,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="1"/>
@@ -1567,7 +1575,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="1"/>
@@ -1575,7 +1583,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="1"/>
@@ -1583,7 +1591,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="1"/>
@@ -1591,7 +1599,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="1"/>
@@ -1599,7 +1607,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="1"/>
@@ -1607,7 +1615,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="1"/>
@@ -1615,7 +1623,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="1"/>
@@ -1623,7 +1631,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="1"/>
@@ -1631,7 +1639,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="1"/>
@@ -1639,7 +1647,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="1"/>
@@ -1647,7 +1655,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="1"/>
@@ -1655,7 +1663,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="1"/>
@@ -1663,7 +1671,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="1"/>
@@ -1671,7 +1679,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="1"/>
@@ -1679,7 +1687,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="1"/>
@@ -1687,7 +1695,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="1"/>
@@ -1695,7 +1703,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="1"/>
@@ -1703,7 +1711,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="1"/>
@@ -1711,7 +1719,7 @@
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
     </row>
-    <row r="57" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="1"/>
@@ -1719,7 +1727,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="1"/>
@@ -1727,7 +1735,7 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="1"/>
@@ -1735,7 +1743,7 @@
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
     </row>
-    <row r="60" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="1"/>
@@ -1743,7 +1751,7 @@
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
     </row>
-    <row r="61" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="1"/>
@@ -1751,7 +1759,7 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="1"/>
@@ -1759,7 +1767,7 @@
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
     </row>
-    <row r="63" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="1"/>
@@ -1767,7 +1775,7 @@
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
     </row>
-    <row r="64" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="1"/>
@@ -1775,7 +1783,7 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="1"/>
@@ -1783,7 +1791,7 @@
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
       <c r="F66" s="1"/>
@@ -1791,7 +1799,7 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
       <c r="F67" s="1"/>
@@ -1799,7 +1807,7 @@
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="1"/>
@@ -1807,7 +1815,7 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
       <c r="F69" s="1"/>
@@ -1815,7 +1823,7 @@
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
     </row>
-    <row r="70" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
       <c r="F70" s="1"/>
@@ -1823,7 +1831,7 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
       <c r="F71" s="1"/>
@@ -1831,7 +1839,7 @@
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
     </row>
-    <row r="72" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
       <c r="F72" s="1"/>
@@ -1839,7 +1847,7 @@
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
       <c r="F73" s="1"/>
@@ -1847,7 +1855,7 @@
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
       <c r="F74" s="1"/>
@@ -1855,7 +1863,7 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
       <c r="F75" s="1"/>
@@ -1863,7 +1871,7 @@
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
     </row>
-    <row r="76" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
       <c r="F76" s="1"/>
@@ -1871,7 +1879,7 @@
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
     </row>
-    <row r="77" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
       <c r="F77" s="1"/>
@@ -1879,7 +1887,7 @@
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
     </row>
-    <row r="78" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
       <c r="F78" s="1"/>
@@ -1887,7 +1895,7 @@
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
     </row>
-    <row r="79" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
       <c r="F79" s="1"/>
@@ -1895,7 +1903,7 @@
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
     </row>
-    <row r="80" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
       <c r="F80" s="1"/>
@@ -1903,7 +1911,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
       <c r="F81" s="1"/>
@@ -1911,7 +1919,7 @@
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
     </row>
-    <row r="82" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
       <c r="F82" s="1"/>
@@ -1919,7 +1927,7 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
       <c r="F83" s="1"/>
@@ -1927,7 +1935,7 @@
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
     </row>
-    <row r="84" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
       <c r="F84" s="1"/>
@@ -1935,7 +1943,7 @@
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
     </row>
-    <row r="85" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
       <c r="F85" s="1"/>
@@ -1943,7 +1951,7 @@
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
     </row>
-    <row r="86" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
       <c r="F86" s="1"/>
@@ -1951,7 +1959,7 @@
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
     </row>
-    <row r="87" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D87" s="2"/>
       <c r="E87" s="2"/>
       <c r="F87" s="1"/>
@@ -1959,7 +1967,7 @@
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
       <c r="F88" s="1"/>
@@ -1967,7 +1975,7 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
       <c r="F89" s="1"/>
@@ -1975,7 +1983,7 @@
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
       <c r="F90" s="1"/>
@@ -1983,7 +1991,7 @@
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
       <c r="F91" s="1"/>
@@ -1991,7 +1999,7 @@
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
     </row>
-    <row r="92" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
       <c r="F92" s="1"/>
@@ -1999,7 +2007,7 @@
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
     </row>
-    <row r="93" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
       <c r="F93" s="1"/>
@@ -2007,7 +2015,7 @@
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
     </row>
-    <row r="94" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
       <c r="F94" s="1"/>
@@ -2015,7 +2023,7 @@
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
     </row>
-    <row r="95" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
       <c r="F95" s="1"/>
@@ -2023,7 +2031,7 @@
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
     </row>
-    <row r="96" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
       <c r="F96" s="1"/>
@@ -2031,7 +2039,7 @@
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
     </row>
-    <row r="97" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
       <c r="F97" s="1"/>
@@ -2039,7 +2047,7 @@
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
     </row>
-    <row r="98" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
       <c r="F98" s="1"/>
@@ -2047,7 +2055,7 @@
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
     </row>
-    <row r="99" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D99" s="2"/>
       <c r="E99" s="2"/>
       <c r="F99" s="1"/>
@@ -2055,7 +2063,7 @@
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
     </row>
-    <row r="100" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
       <c r="F100" s="1"/>
@@ -2063,7 +2071,7 @@
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
     </row>
-    <row r="101" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
       <c r="F101" s="1"/>
@@ -2089,851 +2097,841 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="32.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="40" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.7109375" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.26953125" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.453125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.7265625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="20.90625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="25.08984375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="15.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="F2"/>
-      <c r="H2" s="2"/>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D2" s="6"/>
+      <c r="E2" s="2"/>
+      <c r="G2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="F3"/>
-      <c r="G3" s="2"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="G3"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="2"/>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="1"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="2"/>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="1"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="2"/>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="1"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="2"/>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="1"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="2"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="1"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="2"/>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="1"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="2"/>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="1"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="2"/>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="1"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="2"/>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="1"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="2"/>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="1"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="2"/>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="1"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="2"/>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="1"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="2"/>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="1"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="2"/>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="1"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="2"/>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="1"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="2"/>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="1"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="2"/>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="1"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="2"/>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="1"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="2"/>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="1"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="2"/>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="1"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="2"/>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="1"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="2"/>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="1"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
     </row>
-    <row r="34" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="2"/>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="1"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
     </row>
-    <row r="35" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="2"/>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="1"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
     </row>
-    <row r="36" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="2"/>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="1"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
     </row>
-    <row r="37" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="2"/>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="1"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
     </row>
-    <row r="38" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="2"/>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="1"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
     </row>
-    <row r="39" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="2"/>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="1"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="2"/>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="1"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
     </row>
-    <row r="41" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="2"/>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="1"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
     </row>
-    <row r="42" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="2"/>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="1"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
     </row>
-    <row r="43" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="2"/>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="1"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
     </row>
-    <row r="44" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="2"/>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="1"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
     </row>
-    <row r="45" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="2"/>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="1"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
     </row>
-    <row r="46" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="2"/>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="1"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
     </row>
-    <row r="47" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="2"/>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="1"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
     </row>
-    <row r="48" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="2"/>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="1"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
     </row>
-    <row r="49" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="2"/>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="1"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
     </row>
-    <row r="50" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="2"/>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="1"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
     </row>
-    <row r="51" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="2"/>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="1"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
     </row>
-    <row r="52" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="2"/>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="1"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
     </row>
-    <row r="53" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="2"/>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="1"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
     </row>
-    <row r="54" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="2"/>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="1"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
     </row>
-    <row r="55" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="2"/>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="1"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
     </row>
-    <row r="56" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="2"/>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="1"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
     </row>
-    <row r="57" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="2"/>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="1"/>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
     </row>
-    <row r="58" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="2"/>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="1"/>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
     </row>
-    <row r="59" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="2"/>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="1"/>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
     </row>
-    <row r="60" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="2"/>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="1"/>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
     </row>
-    <row r="61" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="2"/>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="1"/>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
     </row>
-    <row r="62" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="2"/>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="1"/>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
     </row>
-    <row r="63" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="2"/>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="1"/>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
     </row>
-    <row r="64" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="2"/>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="1"/>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
     </row>
-    <row r="65" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="2"/>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="1"/>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
     </row>
-    <row r="66" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="2"/>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="1"/>
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
     </row>
-    <row r="67" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="2"/>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="1"/>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
     </row>
-    <row r="68" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="2"/>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="1"/>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
     </row>
-    <row r="69" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="2"/>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="1"/>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
     </row>
-    <row r="70" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="2"/>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="1"/>
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
     </row>
-    <row r="71" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="2"/>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="1"/>
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
     </row>
-    <row r="72" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="2"/>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="1"/>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
     </row>
-    <row r="73" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="1"/>
-      <c r="G73" s="2"/>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="1"/>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
     </row>
-    <row r="74" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="2"/>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="1"/>
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
     </row>
-    <row r="75" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="2"/>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="1"/>
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
     </row>
-    <row r="76" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="2"/>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="1"/>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
     </row>
-    <row r="77" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="2"/>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="1"/>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
     </row>
-    <row r="78" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="2"/>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="1"/>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
     </row>
-    <row r="79" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="2"/>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="1"/>
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
     </row>
-    <row r="80" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="2"/>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="1"/>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
     </row>
-    <row r="81" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="2"/>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="1"/>
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
     </row>
-    <row r="82" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="2"/>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="1"/>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
     </row>
-    <row r="83" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="2"/>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="1"/>
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
     </row>
-    <row r="84" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="2"/>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="1"/>
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
     </row>
-    <row r="85" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-      <c r="F85" s="1"/>
-      <c r="G85" s="2"/>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="1"/>
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
     </row>
-    <row r="86" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="2"/>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="1"/>
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
     </row>
-    <row r="87" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="2"/>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="1"/>
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
     </row>
-    <row r="88" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="2"/>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="1"/>
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
     </row>
-    <row r="89" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-      <c r="G89" s="2"/>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="1"/>
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
     </row>
-    <row r="90" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="2"/>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="1"/>
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
     </row>
-    <row r="91" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-      <c r="G91" s="2"/>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="1"/>
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
     </row>
-    <row r="92" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="2"/>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="1"/>
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
     </row>
-    <row r="93" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-      <c r="G93" s="2"/>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="1"/>
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
     </row>
-    <row r="94" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="2"/>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="1"/>
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
     </row>
-    <row r="95" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-      <c r="G95" s="2"/>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="1"/>
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
     </row>
-    <row r="96" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-      <c r="F96" s="1"/>
-      <c r="G96" s="2"/>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="1"/>
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
     </row>
-    <row r="97" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-      <c r="G97" s="2"/>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="1"/>
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
     </row>
-    <row r="98" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="2"/>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="1"/>
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
     </row>
-    <row r="99" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-      <c r="F99" s="1"/>
-      <c r="G99" s="2"/>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="1"/>
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
     </row>
-    <row r="100" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="2"/>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="1"/>
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
     </row>
-    <row r="101" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="2"/>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="1"/>
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
     </row>
@@ -2954,415 +2952,416 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.453125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="2"/>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="2"/>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="2"/>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="2"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="2"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="1"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="1"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="1"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="1"/>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="1"/>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="1"/>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="1"/>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="1"/>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="1"/>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="1"/>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="1"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="1"/>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="1"/>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="1"/>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="1"/>
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="1"/>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="1"/>
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="1"/>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="1"/>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="1"/>
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B28" s="1"/>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="1"/>
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="1"/>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="1"/>
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="1"/>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="1"/>
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B31" s="1"/>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="1"/>
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B32" s="1"/>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="1"/>
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="1"/>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="1"/>
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="1"/>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="1"/>
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="1"/>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="1"/>
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="1"/>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="1"/>
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="1"/>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="1"/>
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="1"/>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="1"/>
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="1"/>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="1"/>
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="1"/>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="1"/>
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="1"/>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="1"/>
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="1"/>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="1"/>
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="1"/>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="1"/>
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="1"/>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="1"/>
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="1"/>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="1"/>
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B46" s="1"/>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="1"/>
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="1"/>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="1"/>
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B48" s="1"/>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="1"/>
       <c r="C48" s="1"/>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" s="1"/>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="1"/>
       <c r="C49" s="1"/>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="1"/>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="1"/>
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="1"/>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="1"/>
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="1"/>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="1"/>
       <c r="C52" s="1"/>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="1"/>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="1"/>
       <c r="C53" s="1"/>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" s="1"/>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="1"/>
       <c r="C54" s="1"/>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="1"/>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="1"/>
       <c r="C55" s="1"/>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="1"/>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="1"/>
       <c r="C56" s="1"/>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B57" s="1"/>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="1"/>
       <c r="C57" s="1"/>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B58" s="1"/>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" s="1"/>
       <c r="C58" s="1"/>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B59" s="1"/>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="1"/>
       <c r="C59" s="1"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B60" s="1"/>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" s="1"/>
       <c r="C60" s="1"/>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B61" s="1"/>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" s="1"/>
       <c r="C61" s="1"/>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B62" s="1"/>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" s="1"/>
       <c r="C62" s="1"/>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B63" s="1"/>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" s="1"/>
       <c r="C63" s="1"/>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B64" s="1"/>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64" s="1"/>
       <c r="C64" s="1"/>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" s="1"/>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" s="1"/>
       <c r="C65" s="1"/>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66" s="1"/>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" s="1"/>
       <c r="C66" s="1"/>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="1"/>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" s="1"/>
       <c r="C67" s="1"/>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="1"/>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" s="1"/>
       <c r="C68" s="1"/>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B69" s="1"/>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" s="1"/>
       <c r="C69" s="1"/>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B70" s="1"/>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" s="1"/>
       <c r="C70" s="1"/>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B71" s="1"/>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" s="1"/>
       <c r="C71" s="1"/>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B72" s="1"/>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" s="1"/>
       <c r="C72" s="1"/>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B73" s="1"/>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" s="1"/>
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B74" s="1"/>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" s="1"/>
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B75" s="1"/>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75" s="1"/>
       <c r="C75" s="1"/>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B76" s="1"/>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" s="1"/>
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B77" s="1"/>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" s="1"/>
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B78" s="1"/>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" s="1"/>
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B79" s="1"/>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" s="1"/>
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B80" s="1"/>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" s="1"/>
       <c r="C80" s="1"/>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B81" s="1"/>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A81" s="1"/>
       <c r="C81" s="1"/>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B82" s="1"/>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A82" s="1"/>
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A83" s="1"/>
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A84" s="1"/>
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A85" s="1"/>
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A86" s="1"/>
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A87" s="1"/>
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A88" s="1"/>
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A89" s="1"/>
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A90" s="1"/>
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A91" s="1"/>
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A92" s="1"/>
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A93" s="1"/>
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A94" s="1"/>
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A95" s="1"/>
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A96" s="1"/>
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A97" s="1"/>
       <c r="C97" s="1"/>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A98" s="1"/>
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A99" s="1"/>
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A100" s="1"/>
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A101" s="1"/>
       <c r="C101" s="1"/>
     </row>
   </sheetData>

--- a/Config/JA/ユーザー.xlsx
+++ b/Config/JA/ユーザー.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Config\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3B9B71-080B-433A-89C0-B478572EF1D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6218FA6-FBD9-4E91-94BB-C91831E7EEAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -146,6 +146,39 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
@@ -205,39 +238,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -387,15 +387,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BD40330C-E043-47F5-9A1D-98C4F5DCAE20}" name="Table15" displayName="Table15" ref="A1:I101" totalsRowShown="0">
   <autoFilter ref="A1:I101" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="3" xr3:uid="{01450210-36BE-4B28-9B3B-758A2770B142}" name="ID" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{01450210-36BE-4B28-9B3B-758A2770B142}" name="ID" dataDxfId="9"/>
     <tableColumn id="1" xr3:uid="{D002318D-F09E-4941-86F7-CB540B53CA38}" name="名"/>
     <tableColumn id="2" xr3:uid="{A5B9750D-9F4C-4ACD-B998-452D86A89786}" name="姓"/>
-    <tableColumn id="4" xr3:uid="{FB9ABF1E-6D2B-4148-9C75-B26D470A604D}" name="メールアドレス" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{D7BAAF9B-F2D3-47F6-A40B-80DD0288C534}" name="組織単位名" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{C8CEBD6B-CDA3-4576-9A18-16C14163ADBC}" name="ロール" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{310BA8C6-70B4-40F4-B90F-2C40BB19BC10}" name="ステータス" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{34576645-A498-4AA2-BA38-3776D490DE1A}" name="パスワード" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{E7804193-086E-4884-9B07-86C7E77E0835}" name="結果" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{FB9ABF1E-6D2B-4148-9C75-B26D470A604D}" name="メールアドレス" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{D7BAAF9B-F2D3-47F6-A40B-80DD0288C534}" name="組織単位名" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{C8CEBD6B-CDA3-4576-9A18-16C14163ADBC}" name="ロール" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{310BA8C6-70B4-40F4-B90F-2C40BB19BC10}" name="ステータス" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{34576645-A498-4AA2-BA38-3776D490DE1A}" name="パスワード" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{E7804193-086E-4884-9B07-86C7E77E0835}" name="結果" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -405,9 +405,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:C101" totalsRowShown="0">
   <autoFilter ref="A1:C101" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="ID" dataDxfId="9"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ユーザー名" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{789EC9DB-B69B-4343-B58A-CF450EDB59BF}" name="結果" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="ID" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ユーザー名" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{789EC9DB-B69B-4343-B58A-CF450EDB59BF}" name="結果" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>

--- a/Config/JA/ユーザー.xlsx
+++ b/Config/JA/ユーザー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Config\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6218FA6-FBD9-4E91-94BB-C91831E7EEAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CEC9225-6E23-4B1B-B9CC-2211981821A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Config/JA/ユーザー.xlsx
+++ b/Config/JA/ユーザー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Config\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CEC9225-6E23-4B1B-B9CC-2211981821A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CED4432-77C4-4098-95D7-A2F188E78157}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="10">
   <si>
     <t>名</t>
   </si>
@@ -116,7 +116,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -129,15 +129,12 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="18">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -202,28 +199,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
@@ -353,12 +328,12 @@
   <autoFilter ref="A1:H101" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="8">
     <tableColumn id="8" xr3:uid="{1372863E-1574-486C-96A5-9F8A48DBEB17}" name="ID"/>
-    <tableColumn id="7" xr3:uid="{A067D188-197D-4A79-82E6-8C9B8EDABB7C}" name="ユーザー名" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{A067D188-197D-4A79-82E6-8C9B8EDABB7C}" name="ユーザー名" dataDxfId="17"/>
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="名" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="姓"/>
-    <tableColumn id="6" xr3:uid="{C68BBEAC-7A58-41FB-BA92-351982A4DA1B}" name="メールアドレス" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="組織単位名" totalsRowFunction="count" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{96DFDB45-0B9C-4367-9B24-D26DAD7C70E7}" name="ロール" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{C68BBEAC-7A58-41FB-BA92-351982A4DA1B}" name="メールアドレス" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="組織単位名" totalsRowFunction="count" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{96DFDB45-0B9C-4367-9B24-D26DAD7C70E7}" name="ロール" dataDxfId="14"/>
     <tableColumn id="4" xr3:uid="{73F4371D-09E6-432B-A8D2-FDF51584A3F9}" name="ステータス"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -369,30 +344,28 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I101" totalsRowShown="0">
   <autoFilter ref="A1:I101" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="10" xr3:uid="{65749B7E-1278-4BF9-BE0E-B0B1A7EBF445}" name="ユーザー名" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{65749B7E-1278-4BF9-BE0E-B0B1A7EBF445}" name="ユーザー名" dataDxfId="13"/>
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="名"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="姓"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="メールアドレス"/>
-    <tableColumn id="7" xr3:uid="{9F5282FE-6479-41B7-8672-34D0C5F6C8EE}" name="組織単位名" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{42F54A22-BA7B-4DC3-BF4D-BA0546417160}" name="ロール" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{4E111FFE-AC48-4FF2-B3E5-DEDE4EC1D531}" name="パスワード" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{E2F843A0-E163-4591-A90A-DA03F637285C}" name="ID" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{08B4DCAC-6628-4928-B533-CE43508622D2}" name="結果" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{9F5282FE-6479-41B7-8672-34D0C5F6C8EE}" name="組織単位名" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{42F54A22-BA7B-4DC3-BF4D-BA0546417160}" name="ロール" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{4E111FFE-AC48-4FF2-B3E5-DEDE4EC1D531}" name="パスワード" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{E2F843A0-E163-4591-A90A-DA03F637285C}" name="ID" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{08B4DCAC-6628-4928-B533-CE43508622D2}" name="結果" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BD40330C-E043-47F5-9A1D-98C4F5DCAE20}" name="Table15" displayName="Table15" ref="A1:I101" totalsRowShown="0">
-  <autoFilter ref="A1:I101" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="9">
-    <tableColumn id="3" xr3:uid="{01450210-36BE-4B28-9B3B-758A2770B142}" name="ID" dataDxfId="9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BD40330C-E043-47F5-9A1D-98C4F5DCAE20}" name="Table15" displayName="Table15" ref="A1:G101" totalsRowShown="0">
+  <autoFilter ref="A1:G101" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="7">
+    <tableColumn id="3" xr3:uid="{01450210-36BE-4B28-9B3B-758A2770B142}" name="ID" dataDxfId="7"/>
     <tableColumn id="1" xr3:uid="{D002318D-F09E-4941-86F7-CB540B53CA38}" name="名"/>
     <tableColumn id="2" xr3:uid="{A5B9750D-9F4C-4ACD-B998-452D86A89786}" name="姓"/>
-    <tableColumn id="4" xr3:uid="{FB9ABF1E-6D2B-4148-9C75-B26D470A604D}" name="メールアドレス" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{D7BAAF9B-F2D3-47F6-A40B-80DD0288C534}" name="組織単位名" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{C8CEBD6B-CDA3-4576-9A18-16C14163ADBC}" name="ロール" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{FB9ABF1E-6D2B-4148-9C75-B26D470A604D}" name="メールアドレス" dataDxfId="6"/>
     <tableColumn id="9" xr3:uid="{310BA8C6-70B4-40F4-B90F-2C40BB19BC10}" name="ステータス" dataDxfId="5"/>
     <tableColumn id="5" xr3:uid="{34576645-A498-4AA2-BA38-3776D490DE1A}" name="パスワード" dataDxfId="4"/>
     <tableColumn id="8" xr3:uid="{E7804193-086E-4884-9B07-86C7E77E0835}" name="結果" dataDxfId="3"/>
@@ -1288,90 +1261,68 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
@@ -2091,7 +2042,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECF20293-3040-451C-BEA0-1DF5FCF14B01}">
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2103,13 +2054,11 @@
     <col min="2" max="2" width="16.26953125" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.453125" style="1" customWidth="1"/>
     <col min="4" max="4" width="32.7265625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="20.90625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="25.08984375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="15.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2123,817 +2072,596 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D2" s="6"/>
-      <c r="E2" s="2"/>
-      <c r="G2"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="G3"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E3"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E4"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E5"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E6"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E7"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E8"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E9"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E10"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="E12" s="1"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="2"/>
-      <c r="E13" s="2"/>
+      <c r="E13" s="1"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="E14" s="1"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
-      <c r="E15" s="2"/>
+      <c r="E15" s="1"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
-      <c r="E16" s="2"/>
+      <c r="E16" s="1"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
-      <c r="E17" s="2"/>
+      <c r="E17" s="1"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="E18" s="1"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
-      <c r="E19" s="2"/>
+      <c r="E19" s="1"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
-      <c r="E20" s="2"/>
+      <c r="E20" s="1"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
-      <c r="E21" s="2"/>
+      <c r="E21" s="1"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="E22" s="1"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
-      <c r="E23" s="2"/>
+      <c r="E23" s="1"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
-      <c r="E24" s="2"/>
+      <c r="E24" s="1"/>
       <c r="F24" s="2"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="2"/>
-      <c r="E25" s="2"/>
+      <c r="E25" s="1"/>
       <c r="F25" s="2"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="2"/>
-      <c r="E26" s="2"/>
+      <c r="E26" s="1"/>
       <c r="F26" s="2"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="2"/>
-      <c r="E27" s="2"/>
+      <c r="E27" s="1"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="2"/>
-      <c r="E28" s="2"/>
+      <c r="E28" s="1"/>
       <c r="F28" s="2"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="2"/>
-      <c r="E29" s="2"/>
+      <c r="E29" s="1"/>
       <c r="F29" s="2"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="2"/>
-      <c r="E30" s="2"/>
+      <c r="E30" s="1"/>
       <c r="F30" s="2"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="2"/>
-      <c r="E31" s="2"/>
+      <c r="E31" s="1"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="2"/>
-      <c r="E32" s="2"/>
+      <c r="E32" s="1"/>
       <c r="F32" s="2"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="2"/>
-      <c r="E33" s="2"/>
+      <c r="E33" s="1"/>
       <c r="F33" s="2"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="2"/>
-      <c r="E34" s="2"/>
+      <c r="E34" s="1"/>
       <c r="F34" s="2"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="2"/>
-      <c r="E35" s="2"/>
+      <c r="E35" s="1"/>
       <c r="F35" s="2"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
-      <c r="E36" s="2"/>
+      <c r="E36" s="1"/>
       <c r="F36" s="2"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="2"/>
-      <c r="E37" s="2"/>
+      <c r="E37" s="1"/>
       <c r="F37" s="2"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="2"/>
-      <c r="E38" s="2"/>
+      <c r="E38" s="1"/>
       <c r="F38" s="2"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="2"/>
-      <c r="E39" s="2"/>
+      <c r="E39" s="1"/>
       <c r="F39" s="2"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="2"/>
-      <c r="E40" s="2"/>
+      <c r="E40" s="1"/>
       <c r="F40" s="2"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="2"/>
-      <c r="E41" s="2"/>
+      <c r="E41" s="1"/>
       <c r="F41" s="2"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="2"/>
-      <c r="E42" s="2"/>
+      <c r="E42" s="1"/>
       <c r="F42" s="2"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="2"/>
-      <c r="E43" s="2"/>
+      <c r="E43" s="1"/>
       <c r="F43" s="2"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="2"/>
-      <c r="E44" s="2"/>
+      <c r="E44" s="1"/>
       <c r="F44" s="2"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="2"/>
-      <c r="E45" s="2"/>
+      <c r="E45" s="1"/>
       <c r="F45" s="2"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="2"/>
-      <c r="E46" s="2"/>
+      <c r="E46" s="1"/>
       <c r="F46" s="2"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="2"/>
-      <c r="E47" s="2"/>
+      <c r="E47" s="1"/>
       <c r="F47" s="2"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="2"/>
-      <c r="E48" s="2"/>
+      <c r="E48" s="1"/>
       <c r="F48" s="2"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="2"/>
-      <c r="I48" s="2"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="2"/>
-      <c r="E49" s="2"/>
+      <c r="E49" s="1"/>
       <c r="F49" s="2"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="2"/>
-      <c r="E50" s="2"/>
+      <c r="E50" s="1"/>
       <c r="F50" s="2"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="2"/>
-      <c r="E51" s="2"/>
+      <c r="E51" s="1"/>
       <c r="F51" s="2"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="2"/>
-      <c r="I51" s="2"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G51" s="2"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" s="2"/>
-      <c r="E52" s="2"/>
+      <c r="E52" s="1"/>
       <c r="F52" s="2"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="2"/>
-      <c r="I52" s="2"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G52" s="2"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" s="2"/>
-      <c r="E53" s="2"/>
+      <c r="E53" s="1"/>
       <c r="F53" s="2"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="2"/>
-      <c r="I53" s="2"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G53" s="2"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" s="2"/>
-      <c r="E54" s="2"/>
+      <c r="E54" s="1"/>
       <c r="F54" s="2"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="2"/>
-      <c r="I54" s="2"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G54" s="2"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" s="2"/>
-      <c r="E55" s="2"/>
+      <c r="E55" s="1"/>
       <c r="F55" s="2"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="2"/>
-      <c r="I55" s="2"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G55" s="2"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" s="2"/>
-      <c r="E56" s="2"/>
+      <c r="E56" s="1"/>
       <c r="F56" s="2"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="2"/>
-      <c r="I56" s="2"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G56" s="2"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" s="2"/>
-      <c r="E57" s="2"/>
+      <c r="E57" s="1"/>
       <c r="F57" s="2"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="2"/>
-      <c r="I57" s="2"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G57" s="2"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" s="2"/>
-      <c r="E58" s="2"/>
+      <c r="E58" s="1"/>
       <c r="F58" s="2"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G58" s="2"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" s="2"/>
-      <c r="E59" s="2"/>
+      <c r="E59" s="1"/>
       <c r="F59" s="2"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G59" s="2"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" s="2"/>
-      <c r="E60" s="2"/>
+      <c r="E60" s="1"/>
       <c r="F60" s="2"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G60" s="2"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" s="2"/>
-      <c r="E61" s="2"/>
+      <c r="E61" s="1"/>
       <c r="F61" s="2"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="2"/>
-      <c r="I61" s="2"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G61" s="2"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" s="2"/>
-      <c r="E62" s="2"/>
+      <c r="E62" s="1"/>
       <c r="F62" s="2"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="2"/>
-      <c r="I62" s="2"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G62" s="2"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" s="2"/>
-      <c r="E63" s="2"/>
+      <c r="E63" s="1"/>
       <c r="F63" s="2"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="2"/>
-      <c r="I63" s="2"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G63" s="2"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" s="2"/>
-      <c r="E64" s="2"/>
+      <c r="E64" s="1"/>
       <c r="F64" s="2"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="2"/>
-      <c r="I64" s="2"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G64" s="2"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="2"/>
-      <c r="E65" s="2"/>
+      <c r="E65" s="1"/>
       <c r="F65" s="2"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="2"/>
-      <c r="I65" s="2"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G65" s="2"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="2"/>
-      <c r="E66" s="2"/>
+      <c r="E66" s="1"/>
       <c r="F66" s="2"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="2"/>
-      <c r="I66" s="2"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G66" s="2"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="2"/>
-      <c r="E67" s="2"/>
+      <c r="E67" s="1"/>
       <c r="F67" s="2"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="2"/>
-      <c r="I67" s="2"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G67" s="2"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="2"/>
-      <c r="E68" s="2"/>
+      <c r="E68" s="1"/>
       <c r="F68" s="2"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="2"/>
-      <c r="I68" s="2"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G68" s="2"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="2"/>
-      <c r="E69" s="2"/>
+      <c r="E69" s="1"/>
       <c r="F69" s="2"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="2"/>
-      <c r="I69" s="2"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G69" s="2"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="2"/>
-      <c r="E70" s="2"/>
+      <c r="E70" s="1"/>
       <c r="F70" s="2"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="2"/>
-      <c r="I70" s="2"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G70" s="2"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="2"/>
-      <c r="E71" s="2"/>
+      <c r="E71" s="1"/>
       <c r="F71" s="2"/>
-      <c r="G71" s="1"/>
-      <c r="H71" s="2"/>
-      <c r="I71" s="2"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G71" s="2"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="2"/>
-      <c r="E72" s="2"/>
+      <c r="E72" s="1"/>
       <c r="F72" s="2"/>
-      <c r="G72" s="1"/>
-      <c r="H72" s="2"/>
-      <c r="I72" s="2"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G72" s="2"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="2"/>
-      <c r="E73" s="2"/>
+      <c r="E73" s="1"/>
       <c r="F73" s="2"/>
-      <c r="G73" s="1"/>
-      <c r="H73" s="2"/>
-      <c r="I73" s="2"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G73" s="2"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="2"/>
-      <c r="E74" s="2"/>
+      <c r="E74" s="1"/>
       <c r="F74" s="2"/>
-      <c r="G74" s="1"/>
-      <c r="H74" s="2"/>
-      <c r="I74" s="2"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G74" s="2"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="2"/>
-      <c r="E75" s="2"/>
+      <c r="E75" s="1"/>
       <c r="F75" s="2"/>
-      <c r="G75" s="1"/>
-      <c r="H75" s="2"/>
-      <c r="I75" s="2"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G75" s="2"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" s="2"/>
-      <c r="E76" s="2"/>
+      <c r="E76" s="1"/>
       <c r="F76" s="2"/>
-      <c r="G76" s="1"/>
-      <c r="H76" s="2"/>
-      <c r="I76" s="2"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G76" s="2"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" s="2"/>
-      <c r="E77" s="2"/>
+      <c r="E77" s="1"/>
       <c r="F77" s="2"/>
-      <c r="G77" s="1"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="2"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G77" s="2"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="2"/>
-      <c r="E78" s="2"/>
+      <c r="E78" s="1"/>
       <c r="F78" s="2"/>
-      <c r="G78" s="1"/>
-      <c r="H78" s="2"/>
-      <c r="I78" s="2"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G78" s="2"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="2"/>
-      <c r="E79" s="2"/>
+      <c r="E79" s="1"/>
       <c r="F79" s="2"/>
-      <c r="G79" s="1"/>
-      <c r="H79" s="2"/>
-      <c r="I79" s="2"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G79" s="2"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="2"/>
-      <c r="E80" s="2"/>
+      <c r="E80" s="1"/>
       <c r="F80" s="2"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="2"/>
-      <c r="I80" s="2"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G80" s="2"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="2"/>
-      <c r="E81" s="2"/>
+      <c r="E81" s="1"/>
       <c r="F81" s="2"/>
-      <c r="G81" s="1"/>
-      <c r="H81" s="2"/>
-      <c r="I81" s="2"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G81" s="2"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" s="2"/>
-      <c r="E82" s="2"/>
+      <c r="E82" s="1"/>
       <c r="F82" s="2"/>
-      <c r="G82" s="1"/>
-      <c r="H82" s="2"/>
-      <c r="I82" s="2"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G82" s="2"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="2"/>
-      <c r="E83" s="2"/>
+      <c r="E83" s="1"/>
       <c r="F83" s="2"/>
-      <c r="G83" s="1"/>
-      <c r="H83" s="2"/>
-      <c r="I83" s="2"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G83" s="2"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="2"/>
-      <c r="E84" s="2"/>
+      <c r="E84" s="1"/>
       <c r="F84" s="2"/>
-      <c r="G84" s="1"/>
-      <c r="H84" s="2"/>
-      <c r="I84" s="2"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G84" s="2"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="2"/>
-      <c r="E85" s="2"/>
+      <c r="E85" s="1"/>
       <c r="F85" s="2"/>
-      <c r="G85" s="1"/>
-      <c r="H85" s="2"/>
-      <c r="I85" s="2"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G85" s="2"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="2"/>
-      <c r="E86" s="2"/>
+      <c r="E86" s="1"/>
       <c r="F86" s="2"/>
-      <c r="G86" s="1"/>
-      <c r="H86" s="2"/>
-      <c r="I86" s="2"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G86" s="2"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" s="2"/>
-      <c r="E87" s="2"/>
+      <c r="E87" s="1"/>
       <c r="F87" s="2"/>
-      <c r="G87" s="1"/>
-      <c r="H87" s="2"/>
-      <c r="I87" s="2"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G87" s="2"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" s="2"/>
-      <c r="E88" s="2"/>
+      <c r="E88" s="1"/>
       <c r="F88" s="2"/>
-      <c r="G88" s="1"/>
-      <c r="H88" s="2"/>
-      <c r="I88" s="2"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G88" s="2"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" s="2"/>
-      <c r="E89" s="2"/>
+      <c r="E89" s="1"/>
       <c r="F89" s="2"/>
-      <c r="G89" s="1"/>
-      <c r="H89" s="2"/>
-      <c r="I89" s="2"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G89" s="2"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" s="2"/>
-      <c r="E90" s="2"/>
+      <c r="E90" s="1"/>
       <c r="F90" s="2"/>
-      <c r="G90" s="1"/>
-      <c r="H90" s="2"/>
-      <c r="I90" s="2"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G90" s="2"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" s="2"/>
-      <c r="E91" s="2"/>
+      <c r="E91" s="1"/>
       <c r="F91" s="2"/>
-      <c r="G91" s="1"/>
-      <c r="H91" s="2"/>
-      <c r="I91" s="2"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G91" s="2"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" s="2"/>
-      <c r="E92" s="2"/>
+      <c r="E92" s="1"/>
       <c r="F92" s="2"/>
-      <c r="G92" s="1"/>
-      <c r="H92" s="2"/>
-      <c r="I92" s="2"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G92" s="2"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" s="2"/>
-      <c r="E93" s="2"/>
+      <c r="E93" s="1"/>
       <c r="F93" s="2"/>
-      <c r="G93" s="1"/>
-      <c r="H93" s="2"/>
-      <c r="I93" s="2"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G93" s="2"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" s="2"/>
-      <c r="E94" s="2"/>
+      <c r="E94" s="1"/>
       <c r="F94" s="2"/>
-      <c r="G94" s="1"/>
-      <c r="H94" s="2"/>
-      <c r="I94" s="2"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G94" s="2"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" s="2"/>
-      <c r="E95" s="2"/>
+      <c r="E95" s="1"/>
       <c r="F95" s="2"/>
-      <c r="G95" s="1"/>
-      <c r="H95" s="2"/>
-      <c r="I95" s="2"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G95" s="2"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" s="2"/>
-      <c r="E96" s="2"/>
+      <c r="E96" s="1"/>
       <c r="F96" s="2"/>
-      <c r="G96" s="1"/>
-      <c r="H96" s="2"/>
-      <c r="I96" s="2"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G96" s="2"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" s="2"/>
-      <c r="E97" s="2"/>
+      <c r="E97" s="1"/>
       <c r="F97" s="2"/>
-      <c r="G97" s="1"/>
-      <c r="H97" s="2"/>
-      <c r="I97" s="2"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G97" s="2"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" s="2"/>
-      <c r="E98" s="2"/>
+      <c r="E98" s="1"/>
       <c r="F98" s="2"/>
-      <c r="G98" s="1"/>
-      <c r="H98" s="2"/>
-      <c r="I98" s="2"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G98" s="2"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" s="2"/>
-      <c r="E99" s="2"/>
+      <c r="E99" s="1"/>
       <c r="F99" s="2"/>
-      <c r="G99" s="1"/>
-      <c r="H99" s="2"/>
-      <c r="I99" s="2"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G99" s="2"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" s="2"/>
-      <c r="E100" s="2"/>
+      <c r="E100" s="1"/>
       <c r="F100" s="2"/>
-      <c r="G100" s="1"/>
-      <c r="H100" s="2"/>
-      <c r="I100" s="2"/>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="G100" s="2"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" s="2"/>
-      <c r="E101" s="2"/>
+      <c r="E101" s="1"/>
       <c r="F101" s="2"/>
-      <c r="G101" s="1"/>
-      <c r="H101" s="2"/>
-      <c r="I101" s="2"/>
+      <c r="G101" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Config/JA/ユーザー.xlsx
+++ b/Config/JA/ユーザー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Config\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CED4432-77C4-4098-95D7-A2F188E78157}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F11D032-A7EB-4530-A251-9D9DD8CE7673}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1327,7 +1327,7 @@
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D14" s="2"/>
+      <c r="D14" s="4"/>
       <c r="E14" s="2"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -1335,7 +1335,7 @@
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D15" s="2"/>
+      <c r="D15" s="4"/>
       <c r="E15" s="2"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -1343,7 +1343,7 @@
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D16" s="2"/>
+      <c r="D16" s="4"/>
       <c r="E16" s="2"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -1351,7 +1351,7 @@
       <c r="I16" s="1"/>
     </row>
     <row r="17" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D17" s="2"/>
+      <c r="D17" s="4"/>
       <c r="E17" s="2"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -1359,7 +1359,7 @@
       <c r="I17" s="1"/>
     </row>
     <row r="18" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D18" s="2"/>
+      <c r="D18" s="4"/>
       <c r="E18" s="2"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -1367,7 +1367,7 @@
       <c r="I18" s="1"/>
     </row>
     <row r="19" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D19" s="2"/>
+      <c r="D19" s="4"/>
       <c r="E19" s="2"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -1375,7 +1375,7 @@
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D20" s="2"/>
+      <c r="D20" s="4"/>
       <c r="E20" s="2"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -1383,7 +1383,7 @@
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D21" s="2"/>
+      <c r="D21" s="4"/>
       <c r="E21" s="2"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -1391,7 +1391,7 @@
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D22" s="2"/>
+      <c r="D22" s="4"/>
       <c r="E22" s="2"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -1399,7 +1399,7 @@
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D23" s="2"/>
+      <c r="D23" s="4"/>
       <c r="E23" s="2"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -1407,7 +1407,7 @@
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D24" s="2"/>
+      <c r="D24" s="4"/>
       <c r="E24" s="2"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -1415,7 +1415,7 @@
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D25" s="2"/>
+      <c r="D25" s="4"/>
       <c r="E25" s="2"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -1423,7 +1423,7 @@
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D26" s="2"/>
+      <c r="D26" s="4"/>
       <c r="E26" s="2"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -1431,7 +1431,7 @@
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D27" s="2"/>
+      <c r="D27" s="4"/>
       <c r="E27" s="2"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -1439,7 +1439,7 @@
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D28" s="2"/>
+      <c r="D28" s="4"/>
       <c r="E28" s="2"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -1447,7 +1447,7 @@
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D29" s="2"/>
+      <c r="D29" s="4"/>
       <c r="E29" s="2"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -1455,7 +1455,7 @@
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D30" s="2"/>
+      <c r="D30" s="4"/>
       <c r="E30" s="2"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -1463,7 +1463,7 @@
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D31" s="2"/>
+      <c r="D31" s="4"/>
       <c r="E31" s="2"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -1471,7 +1471,7 @@
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D32" s="2"/>
+      <c r="D32" s="4"/>
       <c r="E32" s="2"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -1479,7 +1479,7 @@
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D33" s="2"/>
+      <c r="D33" s="4"/>
       <c r="E33" s="2"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -1487,7 +1487,7 @@
       <c r="I33" s="1"/>
     </row>
     <row r="34" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D34" s="2"/>
+      <c r="D34" s="4"/>
       <c r="E34" s="2"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -1495,7 +1495,7 @@
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D35" s="2"/>
+      <c r="D35" s="4"/>
       <c r="E35" s="2"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -1503,7 +1503,7 @@
       <c r="I35" s="1"/>
     </row>
     <row r="36" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D36" s="2"/>
+      <c r="D36" s="4"/>
       <c r="E36" s="2"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -1511,7 +1511,7 @@
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D37" s="2"/>
+      <c r="D37" s="4"/>
       <c r="E37" s="2"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -1519,7 +1519,7 @@
       <c r="I37" s="1"/>
     </row>
     <row r="38" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D38" s="2"/>
+      <c r="D38" s="4"/>
       <c r="E38" s="2"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -1527,7 +1527,7 @@
       <c r="I38" s="1"/>
     </row>
     <row r="39" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D39" s="2"/>
+      <c r="D39" s="4"/>
       <c r="E39" s="2"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -1535,7 +1535,7 @@
       <c r="I39" s="1"/>
     </row>
     <row r="40" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D40" s="2"/>
+      <c r="D40" s="4"/>
       <c r="E40" s="2"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -1543,7 +1543,7 @@
       <c r="I40" s="1"/>
     </row>
     <row r="41" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D41" s="2"/>
+      <c r="D41" s="4"/>
       <c r="E41" s="2"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -1551,7 +1551,7 @@
       <c r="I41" s="1"/>
     </row>
     <row r="42" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D42" s="2"/>
+      <c r="D42" s="4"/>
       <c r="E42" s="2"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -1559,7 +1559,7 @@
       <c r="I42" s="1"/>
     </row>
     <row r="43" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D43" s="2"/>
+      <c r="D43" s="4"/>
       <c r="E43" s="2"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -1567,7 +1567,7 @@
       <c r="I43" s="1"/>
     </row>
     <row r="44" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D44" s="2"/>
+      <c r="D44" s="4"/>
       <c r="E44" s="2"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -1575,7 +1575,7 @@
       <c r="I44" s="1"/>
     </row>
     <row r="45" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D45" s="2"/>
+      <c r="D45" s="4"/>
       <c r="E45" s="2"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -1583,7 +1583,7 @@
       <c r="I45" s="1"/>
     </row>
     <row r="46" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D46" s="2"/>
+      <c r="D46" s="4"/>
       <c r="E46" s="2"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -1591,7 +1591,7 @@
       <c r="I46" s="1"/>
     </row>
     <row r="47" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D47" s="2"/>
+      <c r="D47" s="4"/>
       <c r="E47" s="2"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -1599,7 +1599,7 @@
       <c r="I47" s="1"/>
     </row>
     <row r="48" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D48" s="2"/>
+      <c r="D48" s="4"/>
       <c r="E48" s="2"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -1607,7 +1607,7 @@
       <c r="I48" s="1"/>
     </row>
     <row r="49" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D49" s="2"/>
+      <c r="D49" s="4"/>
       <c r="E49" s="2"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -1615,7 +1615,7 @@
       <c r="I49" s="1"/>
     </row>
     <row r="50" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D50" s="2"/>
+      <c r="D50" s="4"/>
       <c r="E50" s="2"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -1623,7 +1623,7 @@
       <c r="I50" s="1"/>
     </row>
     <row r="51" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D51" s="2"/>
+      <c r="D51" s="4"/>
       <c r="E51" s="2"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -1631,7 +1631,7 @@
       <c r="I51" s="1"/>
     </row>
     <row r="52" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D52" s="2"/>
+      <c r="D52" s="4"/>
       <c r="E52" s="2"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
@@ -1639,7 +1639,7 @@
       <c r="I52" s="1"/>
     </row>
     <row r="53" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D53" s="2"/>
+      <c r="D53" s="4"/>
       <c r="E53" s="2"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
@@ -1647,7 +1647,7 @@
       <c r="I53" s="1"/>
     </row>
     <row r="54" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D54" s="2"/>
+      <c r="D54" s="4"/>
       <c r="E54" s="2"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
@@ -1655,7 +1655,7 @@
       <c r="I54" s="1"/>
     </row>
     <row r="55" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D55" s="2"/>
+      <c r="D55" s="4"/>
       <c r="E55" s="2"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
@@ -1663,7 +1663,7 @@
       <c r="I55" s="1"/>
     </row>
     <row r="56" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D56" s="2"/>
+      <c r="D56" s="4"/>
       <c r="E56" s="2"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
@@ -1671,7 +1671,7 @@
       <c r="I56" s="1"/>
     </row>
     <row r="57" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D57" s="2"/>
+      <c r="D57" s="4"/>
       <c r="E57" s="2"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
@@ -1679,7 +1679,7 @@
       <c r="I57" s="1"/>
     </row>
     <row r="58" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D58" s="2"/>
+      <c r="D58" s="4"/>
       <c r="E58" s="2"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
@@ -1687,7 +1687,7 @@
       <c r="I58" s="1"/>
     </row>
     <row r="59" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D59" s="2"/>
+      <c r="D59" s="4"/>
       <c r="E59" s="2"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
@@ -1695,7 +1695,7 @@
       <c r="I59" s="1"/>
     </row>
     <row r="60" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D60" s="2"/>
+      <c r="D60" s="4"/>
       <c r="E60" s="2"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
@@ -1703,7 +1703,7 @@
       <c r="I60" s="1"/>
     </row>
     <row r="61" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D61" s="2"/>
+      <c r="D61" s="4"/>
       <c r="E61" s="2"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
@@ -1711,7 +1711,7 @@
       <c r="I61" s="1"/>
     </row>
     <row r="62" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D62" s="2"/>
+      <c r="D62" s="4"/>
       <c r="E62" s="2"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
@@ -1719,7 +1719,7 @@
       <c r="I62" s="1"/>
     </row>
     <row r="63" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D63" s="2"/>
+      <c r="D63" s="4"/>
       <c r="E63" s="2"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
@@ -1727,7 +1727,7 @@
       <c r="I63" s="1"/>
     </row>
     <row r="64" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D64" s="2"/>
+      <c r="D64" s="4"/>
       <c r="E64" s="2"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
@@ -1735,7 +1735,7 @@
       <c r="I64" s="1"/>
     </row>
     <row r="65" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D65" s="2"/>
+      <c r="D65" s="4"/>
       <c r="E65" s="2"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
@@ -1743,7 +1743,7 @@
       <c r="I65" s="1"/>
     </row>
     <row r="66" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D66" s="2"/>
+      <c r="D66" s="4"/>
       <c r="E66" s="2"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
@@ -1751,7 +1751,7 @@
       <c r="I66" s="1"/>
     </row>
     <row r="67" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D67" s="2"/>
+      <c r="D67" s="4"/>
       <c r="E67" s="2"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
@@ -1759,7 +1759,7 @@
       <c r="I67" s="1"/>
     </row>
     <row r="68" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D68" s="2"/>
+      <c r="D68" s="4"/>
       <c r="E68" s="2"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
@@ -1767,7 +1767,7 @@
       <c r="I68" s="1"/>
     </row>
     <row r="69" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D69" s="2"/>
+      <c r="D69" s="4"/>
       <c r="E69" s="2"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
@@ -1775,7 +1775,7 @@
       <c r="I69" s="1"/>
     </row>
     <row r="70" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D70" s="2"/>
+      <c r="D70" s="4"/>
       <c r="E70" s="2"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
@@ -1783,7 +1783,7 @@
       <c r="I70" s="1"/>
     </row>
     <row r="71" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D71" s="2"/>
+      <c r="D71" s="4"/>
       <c r="E71" s="2"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
@@ -1791,7 +1791,7 @@
       <c r="I71" s="1"/>
     </row>
     <row r="72" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D72" s="2"/>
+      <c r="D72" s="4"/>
       <c r="E72" s="2"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
@@ -1799,7 +1799,7 @@
       <c r="I72" s="1"/>
     </row>
     <row r="73" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D73" s="2"/>
+      <c r="D73" s="4"/>
       <c r="E73" s="2"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
@@ -1807,7 +1807,7 @@
       <c r="I73" s="1"/>
     </row>
     <row r="74" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D74" s="2"/>
+      <c r="D74" s="4"/>
       <c r="E74" s="2"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
@@ -1815,7 +1815,7 @@
       <c r="I74" s="1"/>
     </row>
     <row r="75" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D75" s="2"/>
+      <c r="D75" s="4"/>
       <c r="E75" s="2"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
@@ -1823,7 +1823,7 @@
       <c r="I75" s="1"/>
     </row>
     <row r="76" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D76" s="2"/>
+      <c r="D76" s="4"/>
       <c r="E76" s="2"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
@@ -1831,7 +1831,7 @@
       <c r="I76" s="1"/>
     </row>
     <row r="77" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D77" s="2"/>
+      <c r="D77" s="4"/>
       <c r="E77" s="2"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
@@ -1839,7 +1839,7 @@
       <c r="I77" s="1"/>
     </row>
     <row r="78" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D78" s="2"/>
+      <c r="D78" s="4"/>
       <c r="E78" s="2"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
@@ -1847,7 +1847,7 @@
       <c r="I78" s="1"/>
     </row>
     <row r="79" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D79" s="2"/>
+      <c r="D79" s="4"/>
       <c r="E79" s="2"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
@@ -1855,7 +1855,7 @@
       <c r="I79" s="1"/>
     </row>
     <row r="80" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D80" s="2"/>
+      <c r="D80" s="4"/>
       <c r="E80" s="2"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
@@ -1863,7 +1863,7 @@
       <c r="I80" s="1"/>
     </row>
     <row r="81" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D81" s="2"/>
+      <c r="D81" s="4"/>
       <c r="E81" s="2"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
@@ -1871,7 +1871,7 @@
       <c r="I81" s="1"/>
     </row>
     <row r="82" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D82" s="2"/>
+      <c r="D82" s="4"/>
       <c r="E82" s="2"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
@@ -1879,7 +1879,7 @@
       <c r="I82" s="1"/>
     </row>
     <row r="83" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D83" s="2"/>
+      <c r="D83" s="4"/>
       <c r="E83" s="2"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
@@ -1887,7 +1887,7 @@
       <c r="I83" s="1"/>
     </row>
     <row r="84" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D84" s="2"/>
+      <c r="D84" s="4"/>
       <c r="E84" s="2"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
@@ -1895,7 +1895,7 @@
       <c r="I84" s="1"/>
     </row>
     <row r="85" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D85" s="2"/>
+      <c r="D85" s="4"/>
       <c r="E85" s="2"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
@@ -1903,7 +1903,7 @@
       <c r="I85" s="1"/>
     </row>
     <row r="86" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D86" s="2"/>
+      <c r="D86" s="4"/>
       <c r="E86" s="2"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
@@ -1911,7 +1911,7 @@
       <c r="I86" s="1"/>
     </row>
     <row r="87" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D87" s="2"/>
+      <c r="D87" s="4"/>
       <c r="E87" s="2"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
@@ -1919,7 +1919,7 @@
       <c r="I87" s="1"/>
     </row>
     <row r="88" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D88" s="2"/>
+      <c r="D88" s="4"/>
       <c r="E88" s="2"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
@@ -1927,7 +1927,7 @@
       <c r="I88" s="1"/>
     </row>
     <row r="89" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D89" s="2"/>
+      <c r="D89" s="4"/>
       <c r="E89" s="2"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
@@ -1935,7 +1935,7 @@
       <c r="I89" s="1"/>
     </row>
     <row r="90" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D90" s="2"/>
+      <c r="D90" s="4"/>
       <c r="E90" s="2"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
@@ -1943,7 +1943,7 @@
       <c r="I90" s="1"/>
     </row>
     <row r="91" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D91" s="2"/>
+      <c r="D91" s="4"/>
       <c r="E91" s="2"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
@@ -1951,7 +1951,7 @@
       <c r="I91" s="1"/>
     </row>
     <row r="92" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D92" s="2"/>
+      <c r="D92" s="4"/>
       <c r="E92" s="2"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
@@ -1959,7 +1959,7 @@
       <c r="I92" s="1"/>
     </row>
     <row r="93" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D93" s="2"/>
+      <c r="D93" s="4"/>
       <c r="E93" s="2"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
@@ -1967,7 +1967,7 @@
       <c r="I93" s="1"/>
     </row>
     <row r="94" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D94" s="2"/>
+      <c r="D94" s="4"/>
       <c r="E94" s="2"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
@@ -1975,7 +1975,7 @@
       <c r="I94" s="1"/>
     </row>
     <row r="95" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D95" s="2"/>
+      <c r="D95" s="4"/>
       <c r="E95" s="2"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
@@ -1983,7 +1983,7 @@
       <c r="I95" s="1"/>
     </row>
     <row r="96" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D96" s="2"/>
+      <c r="D96" s="4"/>
       <c r="E96" s="2"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
@@ -1991,7 +1991,7 @@
       <c r="I96" s="1"/>
     </row>
     <row r="97" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D97" s="2"/>
+      <c r="D97" s="4"/>
       <c r="E97" s="2"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
@@ -1999,7 +1999,7 @@
       <c r="I97" s="1"/>
     </row>
     <row r="98" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D98" s="2"/>
+      <c r="D98" s="4"/>
       <c r="E98" s="2"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
@@ -2007,7 +2007,7 @@
       <c r="I98" s="1"/>
     </row>
     <row r="99" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D99" s="2"/>
+      <c r="D99" s="4"/>
       <c r="E99" s="2"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
@@ -2015,7 +2015,7 @@
       <c r="I99" s="1"/>
     </row>
     <row r="100" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D100" s="2"/>
+      <c r="D100" s="4"/>
       <c r="E100" s="2"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
@@ -2023,7 +2023,7 @@
       <c r="I100" s="1"/>
     </row>
     <row r="101" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D101" s="2"/>
+      <c r="D101" s="4"/>
       <c r="E101" s="2"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
@@ -2702,9 +2702,11 @@
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B4" s="2"/>
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">

--- a/Config/JA/ユーザー.xlsx
+++ b/Config/JA/ユーザー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Config\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F11D032-A7EB-4530-A251-9D9DD8CE7673}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396100E7-FDA2-4093-8B64-D55E88A7AD1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="作成" sheetId="1" r:id="rId2"/>
     <sheet name="編集" sheetId="5" r:id="rId3"/>
     <sheet name="削除" sheetId="2" r:id="rId4"/>
+    <sheet name="組織単位の追加・削除" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="38">
   <si>
     <t>名</t>
   </si>
@@ -66,6 +67,90 @@
   </si>
   <si>
     <t>組織単位名</t>
+  </si>
+  <si>
+    <t>追加される組織単位名</t>
+  </si>
+  <si>
+    <t>削除される組織単位名</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>admin@defaulttenant.com</t>
+  </si>
+  <si>
+    <t>Default, Test</t>
+  </si>
+  <si>
+    <t>Administrator, AssetsManager</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>HostRobot</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>Robot</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>a@a.com</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>b@b.com</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>c@c.com</t>
+  </si>
+  <si>
+    <t>Administrator</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>d@d.com</t>
+  </si>
+  <si>
+    <t>Administrator, MachineViewer</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>e@e.com</t>
+  </si>
+  <si>
+    <t>MachineViewer</t>
+  </si>
+  <si>
+    <t>成功</t>
   </si>
 </sst>
 </file>
@@ -134,7 +219,51 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="22">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -328,12 +457,12 @@
   <autoFilter ref="A1:H101" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="8">
     <tableColumn id="8" xr3:uid="{1372863E-1574-486C-96A5-9F8A48DBEB17}" name="ID"/>
-    <tableColumn id="7" xr3:uid="{A067D188-197D-4A79-82E6-8C9B8EDABB7C}" name="ユーザー名" dataDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{A067D188-197D-4A79-82E6-8C9B8EDABB7C}" name="ユーザー名" dataDxfId="21"/>
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="名" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="姓"/>
-    <tableColumn id="6" xr3:uid="{C68BBEAC-7A58-41FB-BA92-351982A4DA1B}" name="メールアドレス" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="組織単位名" totalsRowFunction="count" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{96DFDB45-0B9C-4367-9B24-D26DAD7C70E7}" name="ロール" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{C68BBEAC-7A58-41FB-BA92-351982A4DA1B}" name="メールアドレス" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="組織単位名" totalsRowFunction="count" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{96DFDB45-0B9C-4367-9B24-D26DAD7C70E7}" name="ロール" dataDxfId="18"/>
     <tableColumn id="4" xr3:uid="{73F4371D-09E6-432B-A8D2-FDF51584A3F9}" name="ステータス"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -344,15 +473,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I101" totalsRowShown="0">
   <autoFilter ref="A1:I101" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="10" xr3:uid="{65749B7E-1278-4BF9-BE0E-B0B1A7EBF445}" name="ユーザー名" dataDxfId="13"/>
+    <tableColumn id="10" xr3:uid="{65749B7E-1278-4BF9-BE0E-B0B1A7EBF445}" name="ユーザー名" dataDxfId="17"/>
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="名"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="姓"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="メールアドレス"/>
-    <tableColumn id="7" xr3:uid="{9F5282FE-6479-41B7-8672-34D0C5F6C8EE}" name="組織単位名" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{42F54A22-BA7B-4DC3-BF4D-BA0546417160}" name="ロール" dataDxfId="11"/>
-    <tableColumn id="9" xr3:uid="{4E111FFE-AC48-4FF2-B3E5-DEDE4EC1D531}" name="パスワード" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{E2F843A0-E163-4591-A90A-DA03F637285C}" name="ID" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{08B4DCAC-6628-4928-B533-CE43508622D2}" name="結果" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{9F5282FE-6479-41B7-8672-34D0C5F6C8EE}" name="組織単位名" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{42F54A22-BA7B-4DC3-BF4D-BA0546417160}" name="ロール" dataDxfId="15"/>
+    <tableColumn id="9" xr3:uid="{4E111FFE-AC48-4FF2-B3E5-DEDE4EC1D531}" name="パスワード" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{E2F843A0-E163-4591-A90A-DA03F637285C}" name="ID" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{08B4DCAC-6628-4928-B533-CE43508622D2}" name="結果" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -362,13 +491,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BD40330C-E043-47F5-9A1D-98C4F5DCAE20}" name="Table15" displayName="Table15" ref="A1:G101" totalsRowShown="0">
   <autoFilter ref="A1:G101" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="3" xr3:uid="{01450210-36BE-4B28-9B3B-758A2770B142}" name="ID" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{01450210-36BE-4B28-9B3B-758A2770B142}" name="ID" dataDxfId="11"/>
     <tableColumn id="1" xr3:uid="{D002318D-F09E-4941-86F7-CB540B53CA38}" name="名"/>
     <tableColumn id="2" xr3:uid="{A5B9750D-9F4C-4ACD-B998-452D86A89786}" name="姓"/>
-    <tableColumn id="4" xr3:uid="{FB9ABF1E-6D2B-4148-9C75-B26D470A604D}" name="メールアドレス" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{310BA8C6-70B4-40F4-B90F-2C40BB19BC10}" name="ステータス" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{34576645-A498-4AA2-BA38-3776D490DE1A}" name="パスワード" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{E7804193-086E-4884-9B07-86C7E77E0835}" name="結果" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{FB9ABF1E-6D2B-4148-9C75-B26D470A604D}" name="メールアドレス" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{310BA8C6-70B4-40F4-B90F-2C40BB19BC10}" name="ステータス" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{34576645-A498-4AA2-BA38-3776D490DE1A}" name="パスワード" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{E7804193-086E-4884-9B07-86C7E77E0835}" name="結果" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -378,9 +507,22 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:C101" totalsRowShown="0">
   <autoFilter ref="A1:C101" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="ID" dataDxfId="2"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ユーザー名" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{789EC9DB-B69B-4343-B58A-CF450EDB59BF}" name="結果" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="ID" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ユーザー名" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{789EC9DB-B69B-4343-B58A-CF450EDB59BF}" name="結果" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{CA60972A-F912-4245-9614-90616502EB7F}" name="Table136" displayName="Table136" ref="A1:D101" totalsRowShown="0">
+  <autoFilter ref="A1:D101" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{762AF24D-1071-4CC3-855B-AFBA1EC67A8F}" name="ユーザー名" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{1DC8369C-6CB3-40DF-9563-6D20384EDB27}" name="追加される組織単位名" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{D8F46081-FD39-42E4-9328-82EAB5A46B2A}" name="削除される組織単位名" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{8A01008F-4F65-412C-9DCE-2CD43107AA97}" name="結果" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -652,7 +794,7 @@
   <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -694,55 +836,215 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
+    <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B3" s="2"/>
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B4" s="2"/>
+      <c r="A4">
+        <v>15</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B5" s="2"/>
+      <c r="A5">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B6" s="2"/>
+      <c r="A6">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
+      <c r="H6" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B7" s="2"/>
-      <c r="E7" s="2"/>
+      <c r="A7">
+        <v>31</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="F7" s="2"/>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="A8">
+        <v>32</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="A9">
+        <v>33</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="G9" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>35</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="2"/>
+      <c r="A11">
+        <v>36</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B12" s="1"/>
@@ -3101,4 +3403,352 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41D521AF-6640-460C-93CB-DF59C538EA49}">
+  <dimension ref="A1:D101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.453125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="24.26953125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D51" s="1"/>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D52" s="1"/>
+    </row>
+    <row r="53" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D54" s="1"/>
+    </row>
+    <row r="55" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D55" s="1"/>
+    </row>
+    <row r="56" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D56" s="1"/>
+    </row>
+    <row r="57" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D57" s="1"/>
+    </row>
+    <row r="58" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D58" s="1"/>
+    </row>
+    <row r="59" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D60" s="1"/>
+    </row>
+    <row r="61" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D61" s="1"/>
+    </row>
+    <row r="62" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D62" s="1"/>
+    </row>
+    <row r="63" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D63" s="1"/>
+    </row>
+    <row r="64" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D64" s="1"/>
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D65" s="1"/>
+    </row>
+    <row r="66" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D66" s="1"/>
+    </row>
+    <row r="67" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D67" s="1"/>
+    </row>
+    <row r="68" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D68" s="1"/>
+    </row>
+    <row r="69" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D69" s="1"/>
+    </row>
+    <row r="70" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D70" s="1"/>
+    </row>
+    <row r="71" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D71" s="1"/>
+    </row>
+    <row r="72" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D72" s="1"/>
+    </row>
+    <row r="73" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D73" s="1"/>
+    </row>
+    <row r="74" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D74" s="1"/>
+    </row>
+    <row r="75" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D75" s="1"/>
+    </row>
+    <row r="76" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D76" s="1"/>
+    </row>
+    <row r="77" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D77" s="1"/>
+    </row>
+    <row r="78" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D78" s="1"/>
+    </row>
+    <row r="79" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D79" s="1"/>
+    </row>
+    <row r="80" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D80" s="1"/>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D81" s="1"/>
+    </row>
+    <row r="82" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D82" s="1"/>
+    </row>
+    <row r="83" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D83" s="1"/>
+    </row>
+    <row r="84" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D84" s="1"/>
+    </row>
+    <row r="85" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D85" s="1"/>
+    </row>
+    <row r="86" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D86" s="1"/>
+    </row>
+    <row r="87" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D87" s="1"/>
+    </row>
+    <row r="88" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D88" s="1"/>
+    </row>
+    <row r="89" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D89" s="1"/>
+    </row>
+    <row r="90" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D90" s="1"/>
+    </row>
+    <row r="91" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D91" s="1"/>
+    </row>
+    <row r="92" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D92" s="1"/>
+    </row>
+    <row r="93" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D93" s="1"/>
+    </row>
+    <row r="94" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D94" s="1"/>
+    </row>
+    <row r="95" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D95" s="1"/>
+    </row>
+    <row r="96" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D96" s="1"/>
+    </row>
+    <row r="97" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D97" s="1"/>
+    </row>
+    <row r="98" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D98" s="1"/>
+    </row>
+    <row r="99" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D99" s="1"/>
+    </row>
+    <row r="100" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D100" s="1"/>
+    </row>
+    <row r="101" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D101" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Config/JA/ユーザー.xlsx
+++ b/Config/JA/ユーザー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Config\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396100E7-FDA2-4093-8B64-D55E88A7AD1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8FEBA16-48D1-46E0-A51D-11BB6901D7ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +18,7 @@
     <sheet name="編集" sheetId="5" r:id="rId3"/>
     <sheet name="削除" sheetId="2" r:id="rId4"/>
     <sheet name="組織単位の追加・削除" sheetId="7" r:id="rId5"/>
+    <sheet name="ロールの追加・削除" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="14">
   <si>
     <t>名</t>
   </si>
@@ -75,82 +76,10 @@
     <t>削除される組織単位名</t>
   </si>
   <si>
-    <t>admin</t>
+    <t>追加されるロール名</t>
   </si>
   <si>
-    <t>admin@defaulttenant.com</t>
-  </si>
-  <si>
-    <t>Default, Test</t>
-  </si>
-  <si>
-    <t>Administrator, AssetsManager</t>
-  </si>
-  <si>
-    <t>Active</t>
-  </si>
-  <si>
-    <t>HostRobot</t>
-  </si>
-  <si>
-    <t>Default</t>
-  </si>
-  <si>
-    <t>Robot</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>a@a.com</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>b@b.com</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>c@c.com</t>
-  </si>
-  <si>
-    <t>Administrator</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>d@d.com</t>
-  </si>
-  <si>
-    <t>Administrator, MachineViewer</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>e@e.com</t>
-  </si>
-  <si>
-    <t>MachineViewer</t>
-  </si>
-  <si>
-    <t>成功</t>
+    <t>削除されるロール名</t>
   </si>
 </sst>
 </file>
@@ -219,7 +148,51 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="26">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -457,12 +430,12 @@
   <autoFilter ref="A1:H101" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="8">
     <tableColumn id="8" xr3:uid="{1372863E-1574-486C-96A5-9F8A48DBEB17}" name="ID"/>
-    <tableColumn id="7" xr3:uid="{A067D188-197D-4A79-82E6-8C9B8EDABB7C}" name="ユーザー名" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{A067D188-197D-4A79-82E6-8C9B8EDABB7C}" name="ユーザー名" dataDxfId="25"/>
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="名" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="姓"/>
-    <tableColumn id="6" xr3:uid="{C68BBEAC-7A58-41FB-BA92-351982A4DA1B}" name="メールアドレス" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="組織単位名" totalsRowFunction="count" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{96DFDB45-0B9C-4367-9B24-D26DAD7C70E7}" name="ロール" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{C68BBEAC-7A58-41FB-BA92-351982A4DA1B}" name="メールアドレス" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="組織単位名" totalsRowFunction="count" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{96DFDB45-0B9C-4367-9B24-D26DAD7C70E7}" name="ロール" dataDxfId="22"/>
     <tableColumn id="4" xr3:uid="{73F4371D-09E6-432B-A8D2-FDF51584A3F9}" name="ステータス"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -473,15 +446,15 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I101" totalsRowShown="0">
   <autoFilter ref="A1:I101" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
-    <tableColumn id="10" xr3:uid="{65749B7E-1278-4BF9-BE0E-B0B1A7EBF445}" name="ユーザー名" dataDxfId="17"/>
+    <tableColumn id="10" xr3:uid="{65749B7E-1278-4BF9-BE0E-B0B1A7EBF445}" name="ユーザー名" dataDxfId="21"/>
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="名"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="姓"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="メールアドレス"/>
-    <tableColumn id="7" xr3:uid="{9F5282FE-6479-41B7-8672-34D0C5F6C8EE}" name="組織単位名" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{42F54A22-BA7B-4DC3-BF4D-BA0546417160}" name="ロール" dataDxfId="15"/>
-    <tableColumn id="9" xr3:uid="{4E111FFE-AC48-4FF2-B3E5-DEDE4EC1D531}" name="パスワード" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{E2F843A0-E163-4591-A90A-DA03F637285C}" name="ID" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{08B4DCAC-6628-4928-B533-CE43508622D2}" name="結果" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{9F5282FE-6479-41B7-8672-34D0C5F6C8EE}" name="組織単位名" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{42F54A22-BA7B-4DC3-BF4D-BA0546417160}" name="ロール" dataDxfId="19"/>
+    <tableColumn id="9" xr3:uid="{4E111FFE-AC48-4FF2-B3E5-DEDE4EC1D531}" name="パスワード" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{E2F843A0-E163-4591-A90A-DA03F637285C}" name="ID" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{08B4DCAC-6628-4928-B533-CE43508622D2}" name="結果" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -491,13 +464,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BD40330C-E043-47F5-9A1D-98C4F5DCAE20}" name="Table15" displayName="Table15" ref="A1:G101" totalsRowShown="0">
   <autoFilter ref="A1:G101" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="3" xr3:uid="{01450210-36BE-4B28-9B3B-758A2770B142}" name="ID" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{01450210-36BE-4B28-9B3B-758A2770B142}" name="ID" dataDxfId="15"/>
     <tableColumn id="1" xr3:uid="{D002318D-F09E-4941-86F7-CB540B53CA38}" name="名"/>
     <tableColumn id="2" xr3:uid="{A5B9750D-9F4C-4ACD-B998-452D86A89786}" name="姓"/>
-    <tableColumn id="4" xr3:uid="{FB9ABF1E-6D2B-4148-9C75-B26D470A604D}" name="メールアドレス" dataDxfId="10"/>
-    <tableColumn id="9" xr3:uid="{310BA8C6-70B4-40F4-B90F-2C40BB19BC10}" name="ステータス" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{34576645-A498-4AA2-BA38-3776D490DE1A}" name="パスワード" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{E7804193-086E-4884-9B07-86C7E77E0835}" name="結果" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{FB9ABF1E-6D2B-4148-9C75-B26D470A604D}" name="メールアドレス" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{310BA8C6-70B4-40F4-B90F-2C40BB19BC10}" name="ステータス" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{34576645-A498-4AA2-BA38-3776D490DE1A}" name="パスワード" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{E7804193-086E-4884-9B07-86C7E77E0835}" name="結果" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -507,9 +480,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:C101" totalsRowShown="0">
   <autoFilter ref="A1:C101" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="ID" dataDxfId="6"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ユーザー名" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{789EC9DB-B69B-4343-B58A-CF450EDB59BF}" name="結果" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="ID" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ユーザー名" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{789EC9DB-B69B-4343-B58A-CF450EDB59BF}" name="結果" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -519,10 +492,23 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{CA60972A-F912-4245-9614-90616502EB7F}" name="Table136" displayName="Table136" ref="A1:D101" totalsRowShown="0">
   <autoFilter ref="A1:D101" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{762AF24D-1071-4CC3-855B-AFBA1EC67A8F}" name="ユーザー名" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{1DC8369C-6CB3-40DF-9563-6D20384EDB27}" name="追加される組織単位名" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{D8F46081-FD39-42E4-9328-82EAB5A46B2A}" name="削除される組織単位名" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{8A01008F-4F65-412C-9DCE-2CD43107AA97}" name="結果" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{762AF24D-1071-4CC3-855B-AFBA1EC67A8F}" name="ユーザー名" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{1DC8369C-6CB3-40DF-9563-6D20384EDB27}" name="追加される組織単位名" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{D8F46081-FD39-42E4-9328-82EAB5A46B2A}" name="削除される組織単位名" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{8A01008F-4F65-412C-9DCE-2CD43107AA97}" name="結果" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D7C59586-DAF7-4411-AF3A-D7C272A65EF7}" name="Table1367" displayName="Table1367" ref="A1:D101" totalsRowShown="0">
+  <autoFilter ref="A1:D101" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{6ADEC0F4-60B9-440B-ACB4-4A0E21BD6E55}" name="ユーザー名" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{35497579-2B4A-401D-AAA7-DC449805F456}" name="追加されるロール名" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{FFF7ADE8-2EC3-4F29-AE06-AA9A280597F6}" name="削除されるロール名" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{80C9DBFB-CF60-44AC-81AB-9BA9267B4649}" name="結果" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -794,7 +780,7 @@
   <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -836,215 +822,55 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="B3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>15</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="B4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s">
-        <v>16</v>
-      </c>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>16</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="B5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>20</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="B6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="H6" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>31</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>24</v>
-      </c>
+      <c r="B7" s="2"/>
+      <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="H7" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>32</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H8" t="s">
-        <v>16</v>
-      </c>
+      <c r="B8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>33</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>29</v>
-      </c>
+      <c r="B9" s="2"/>
+      <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>35</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" t="s">
-        <v>16</v>
-      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>36</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" t="s">
-        <v>16</v>
-      </c>
+      <c r="B11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B12" s="1"/>
@@ -3434,18 +3260,344 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>34</v>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D51" s="1"/>
+    </row>
+    <row r="52" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D52" s="1"/>
+    </row>
+    <row r="53" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D54" s="1"/>
+    </row>
+    <row r="55" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D55" s="1"/>
+    </row>
+    <row r="56" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D56" s="1"/>
+    </row>
+    <row r="57" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D57" s="1"/>
+    </row>
+    <row r="58" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D58" s="1"/>
+    </row>
+    <row r="59" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D60" s="1"/>
+    </row>
+    <row r="61" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D61" s="1"/>
+    </row>
+    <row r="62" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D62" s="1"/>
+    </row>
+    <row r="63" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D63" s="1"/>
+    </row>
+    <row r="64" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D64" s="1"/>
+    </row>
+    <row r="65" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D65" s="1"/>
+    </row>
+    <row r="66" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D66" s="1"/>
+    </row>
+    <row r="67" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D67" s="1"/>
+    </row>
+    <row r="68" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D68" s="1"/>
+    </row>
+    <row r="69" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D69" s="1"/>
+    </row>
+    <row r="70" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D70" s="1"/>
+    </row>
+    <row r="71" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D71" s="1"/>
+    </row>
+    <row r="72" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D72" s="1"/>
+    </row>
+    <row r="73" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D73" s="1"/>
+    </row>
+    <row r="74" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D74" s="1"/>
+    </row>
+    <row r="75" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D75" s="1"/>
+    </row>
+    <row r="76" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D76" s="1"/>
+    </row>
+    <row r="77" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D77" s="1"/>
+    </row>
+    <row r="78" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D78" s="1"/>
+    </row>
+    <row r="79" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D79" s="1"/>
+    </row>
+    <row r="80" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D80" s="1"/>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D81" s="1"/>
+    </row>
+    <row r="82" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D82" s="1"/>
+    </row>
+    <row r="83" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D83" s="1"/>
+    </row>
+    <row r="84" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D84" s="1"/>
+    </row>
+    <row r="85" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D85" s="1"/>
+    </row>
+    <row r="86" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D86" s="1"/>
+    </row>
+    <row r="87" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D87" s="1"/>
+    </row>
+    <row r="88" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D88" s="1"/>
+    </row>
+    <row r="89" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D89" s="1"/>
+    </row>
+    <row r="90" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D90" s="1"/>
+    </row>
+    <row r="91" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D91" s="1"/>
+    </row>
+    <row r="92" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D92" s="1"/>
+    </row>
+    <row r="93" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D93" s="1"/>
+    </row>
+    <row r="94" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D94" s="1"/>
+    </row>
+    <row r="95" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D95" s="1"/>
+    </row>
+    <row r="96" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D96" s="1"/>
+    </row>
+    <row r="97" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D97" s="1"/>
+    </row>
+    <row r="98" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D98" s="1"/>
+    </row>
+    <row r="99" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D99" s="1"/>
+    </row>
+    <row r="100" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D100" s="1"/>
+    </row>
+    <row r="101" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D101" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5A9D10F-A50E-4AEE-B953-C4F52E6C6853}">
+  <dimension ref="A1:D101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="18.453125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="24.26953125" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>27</v>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>18</v>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>37</v>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
       </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D3" s="2"/>

--- a/Config/JA/ユーザー.xlsx
+++ b/Config/JA/ユーザー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Config\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8FEBA16-48D1-46E0-A51D-11BB6901D7ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1792EB47-8878-4481-A520-5BC5CACC1CF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="15">
   <si>
     <t>名</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>削除されるロール名</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -1335,8 +1338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1383,6 +1386,12 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="D2" s="4"/>
       <c r="E2" s="1"/>
       <c r="H2" s="1"/>
@@ -3260,9 +3269,11 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="2"/>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="2"/>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -3597,6 +3608,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="2"/>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">

--- a/Config/JA/ユーザー.xlsx
+++ b/Config/JA/ユーザー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Config\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1792EB47-8878-4481-A520-5BC5CACC1CF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88B0B5E-CBA3-4AEF-B406-EFB977D0EA6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="14">
   <si>
     <t>名</t>
   </si>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>削除されるロール名</t>
-  </si>
-  <si>
-    <t>X</t>
   </si>
 </sst>
 </file>
@@ -1338,8 +1335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1386,12 +1383,6 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="D2" s="4"/>
       <c r="E2" s="1"/>
       <c r="H2" s="1"/>
@@ -2847,6 +2838,7 @@
       <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
